--- a/Valid.xlsx
+++ b/Valid.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L192"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>频率</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>速度</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>电流</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Q频</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Q释放</t>
+          <t>填充间距</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -495,37 +495,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>4500</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0737050473690033</v>
+        <v>0.09389520436525345</v>
       </c>
       <c r="G2" t="n">
-        <v>71.72152709960938</v>
+        <v>70.57264709472656</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7697725296020508</v>
+        <v>0.1414252519607544</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.57487154006958</v>
+        <v>-4.309480667114258</v>
       </c>
       <c r="J2" t="n">
-        <v>71.97000122070312</v>
+        <v>70.44000244140625</v>
       </c>
       <c r="K2" t="n">
-        <v>0.800000011920929</v>
+        <v>0.2599999904632568</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.679999828338623</v>
+        <v>-4.059999942779541</v>
       </c>
     </row>
     <row r="3">
@@ -533,37 +533,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>5000</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06839680671691895</v>
+        <v>0.1028407290577888</v>
       </c>
       <c r="G3" t="n">
-        <v>71.59407806396484</v>
+        <v>69.94805908203125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6576858162879944</v>
+        <v>0.5135604739189148</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.554839611053467</v>
+        <v>-5.055056095123291</v>
       </c>
       <c r="J3" t="n">
-        <v>71.37000274658203</v>
+        <v>69.80000305175781</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="L3" t="n">
-        <v>-6.420000076293945</v>
+        <v>-5.320000171661377</v>
       </c>
     </row>
     <row r="4">
@@ -571,37 +571,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009999999776482582</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06784096360206604</v>
+        <v>0.2285423576831818</v>
       </c>
       <c r="G4" t="n">
-        <v>70.13965606689453</v>
+        <v>69.69225311279297</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3366323411464691</v>
+        <v>0.385011613368988</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.919038772583008</v>
+        <v>-4.510027885437012</v>
       </c>
       <c r="J4" t="n">
-        <v>70.01999664306641</v>
+        <v>69.22000122070312</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4699999988079071</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="L4" t="n">
-        <v>-4.730000019073486</v>
+        <v>-4.579999923706055</v>
       </c>
     </row>
     <row r="5">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>3500</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03023103252053261</v>
+        <v>0.04050577059388161</v>
       </c>
       <c r="G5" t="n">
-        <v>72.71903991699219</v>
+        <v>71.37411499023438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.890666127204895</v>
+        <v>0.8093683123588562</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.802361965179443</v>
+        <v>-6.210544586181641</v>
       </c>
       <c r="J5" t="n">
-        <v>72.80000305175781</v>
+        <v>71.48999786376953</v>
       </c>
       <c r="K5" t="n">
-        <v>0.75</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="L5" t="n">
-        <v>-6.739999771118164</v>
+        <v>-6.369999885559082</v>
       </c>
     </row>
     <row r="6">
@@ -647,37 +647,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>4500</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>0.009999999776482582</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2280976921319962</v>
+        <v>0.09420107305049896</v>
       </c>
       <c r="G6" t="n">
-        <v>74.35027313232422</v>
+        <v>69.77602386474609</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2878642380237579</v>
+        <v>0.8717380166053772</v>
       </c>
       <c r="I6" t="n">
-        <v>-5.002078533172607</v>
+        <v>-5.609566211700439</v>
       </c>
       <c r="J6" t="n">
-        <v>73.91000366210938</v>
+        <v>69.55000305175781</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2099999934434891</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.170000076293945</v>
+        <v>-5.710000038146973</v>
       </c>
     </row>
     <row r="7">
@@ -685,37 +685,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>1500</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07870703190565109</v>
+        <v>1.384566068649292</v>
       </c>
       <c r="G7" t="n">
-        <v>62.68813323974609</v>
+        <v>71.53891754150391</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6984118223190308</v>
+        <v>0.3845416903495789</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.825750350952148</v>
+        <v>-4.190109252929688</v>
       </c>
       <c r="J7" t="n">
-        <v>62.40999984741211</v>
+        <v>72.69000244140625</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6899999976158142</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="L7" t="n">
-        <v>-5.789999961853027</v>
+        <v>-3.970000028610229</v>
       </c>
     </row>
     <row r="8">
@@ -723,37 +723,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1063452884554863</v>
+        <v>0.2517203390598297</v>
       </c>
       <c r="G8" t="n">
-        <v>65.40930938720703</v>
+        <v>77.60033416748047</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7852655649185181</v>
+        <v>-0.02784186601638794</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.148872375488281</v>
+        <v>-4.866082191467285</v>
       </c>
       <c r="J8" t="n">
-        <v>65.73000335693359</v>
+        <v>77.93000030517578</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7300000190734863</v>
+        <v>-0.25</v>
       </c>
       <c r="L8" t="n">
-        <v>-4.170000076293945</v>
+        <v>-4.559999942779541</v>
       </c>
     </row>
     <row r="9">
@@ -761,37 +761,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>5000</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05772039666771889</v>
+        <v>0.01077823154628277</v>
       </c>
       <c r="G9" t="n">
-        <v>70.82785797119141</v>
+        <v>82.08563232421875</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7942662239074707</v>
+        <v>0.9162333607673645</v>
       </c>
       <c r="I9" t="n">
-        <v>-6.148404598236084</v>
+        <v>-4.801960468292236</v>
       </c>
       <c r="J9" t="n">
-        <v>70.65000152587891</v>
+        <v>82.12000274658203</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="L9" t="n">
-        <v>-6.300000190734863</v>
+        <v>-4.710000038146973</v>
       </c>
     </row>
     <row r="10">
@@ -799,37 +799,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5717597603797913</v>
+        <v>0.04026861488819122</v>
       </c>
       <c r="G10" t="n">
-        <v>66.38459014892578</v>
+        <v>73.30980682373047</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6655934453010559</v>
+        <v>0.1226816773414612</v>
       </c>
       <c r="I10" t="n">
-        <v>-5.163856983184814</v>
+        <v>-4.303393840789795</v>
       </c>
       <c r="J10" t="n">
-        <v>65.69000244140625</v>
+        <v>73.38999938964844</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4300000071525574</v>
+        <v>-0.05000000074505806</v>
       </c>
       <c r="L10" t="n">
-        <v>-4.980000019073486</v>
+        <v>-4.239999771118164</v>
       </c>
     </row>
     <row r="11">
@@ -837,37 +837,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1039188504219055</v>
+        <v>0.2813952267169952</v>
       </c>
       <c r="G11" t="n">
-        <v>68.91188049316406</v>
+        <v>70.21501159667969</v>
       </c>
       <c r="H11" t="n">
-        <v>0.67383873462677</v>
+        <v>0.1970545053482056</v>
       </c>
       <c r="I11" t="n">
-        <v>-5.008520603179932</v>
+        <v>-3.405550479888916</v>
       </c>
       <c r="J11" t="n">
-        <v>68.62000274658203</v>
+        <v>69.69999694824219</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5400000214576721</v>
+        <v>0.25</v>
       </c>
       <c r="L11" t="n">
-        <v>-4.980000019073486</v>
+        <v>-3.289999961853027</v>
       </c>
     </row>
     <row r="12">
@@ -875,37 +875,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0686863511800766</v>
+        <v>0.1261300146579742</v>
       </c>
       <c r="G12" t="n">
-        <v>62.39108276367188</v>
+        <v>76.17222595214844</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8242416381835938</v>
+        <v>-0.1265363693237305</v>
       </c>
       <c r="I12" t="n">
-        <v>-6.039069652557373</v>
+        <v>-4.700467586517334</v>
       </c>
       <c r="J12" t="n">
-        <v>62.52999877929688</v>
+        <v>76.38999938964844</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6100000143051147</v>
+        <v>-0.119999997317791</v>
       </c>
       <c r="L12" t="n">
-        <v>-5.980000019073486</v>
+        <v>-4.420000076293945</v>
       </c>
     </row>
     <row r="13">
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0.381440281867981</v>
+        <v>0.3748499751091003</v>
       </c>
       <c r="G13" t="n">
-        <v>66.29911804199219</v>
+        <v>76.83126831054688</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5160173177719116</v>
+        <v>0.7154250144958496</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.183729410171509</v>
+        <v>-4.294400691986084</v>
       </c>
       <c r="J13" t="n">
-        <v>66.88999938964844</v>
+        <v>76.54000091552734</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4699999988079071</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="L13" t="n">
-        <v>-3.009999990463257</v>
+        <v>-4.800000190734863</v>
       </c>
     </row>
     <row r="14">
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>2500</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02662152424454689</v>
+        <v>1.335049390792847</v>
       </c>
       <c r="G14" t="n">
-        <v>64.74021911621094</v>
+        <v>70.91883087158203</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5524084568023682</v>
+        <v>0.1725704073905945</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.203612804412842</v>
+        <v>-5.775923252105713</v>
       </c>
       <c r="J14" t="n">
-        <v>64.90000152587891</v>
+        <v>72.06999969482422</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5199999809265137</v>
+        <v>0.07999999821186066</v>
       </c>
       <c r="L14" t="n">
-        <v>-6.210000038146973</v>
+        <v>-5.739999771118164</v>
       </c>
     </row>
     <row r="15">
@@ -989,37 +989,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01999999955296516</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1169976070523262</v>
+        <v>0.03546052426099777</v>
       </c>
       <c r="G15" t="n">
-        <v>73.55030059814453</v>
+        <v>72.11228942871094</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4868963658809662</v>
+        <v>0.8923899531364441</v>
       </c>
       <c r="I15" t="n">
-        <v>-6.445374965667725</v>
+        <v>-5.922404289245605</v>
       </c>
       <c r="J15" t="n">
-        <v>73.34999847412109</v>
+        <v>72.08999633789062</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7099999785423279</v>
+        <v>0.8199999928474426</v>
       </c>
       <c r="L15" t="n">
-        <v>-6.610000133514404</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="16">
@@ -1027,37 +1027,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>4000</v>
+        <v>45</v>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>1.078634738922119</v>
+        <v>0.02581886947154999</v>
       </c>
       <c r="G16" t="n">
-        <v>71.00801849365234</v>
+        <v>68.06716156005859</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6244631409645081</v>
+        <v>0.6333093047142029</v>
       </c>
       <c r="I16" t="n">
-        <v>-6.833530902862549</v>
+        <v>-4.972148418426514</v>
       </c>
       <c r="J16" t="n">
-        <v>69.97000122070312</v>
+        <v>68.01000213623047</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6299999952316284</v>
+        <v>0.7799999713897705</v>
       </c>
       <c r="L16" t="n">
-        <v>-6.800000190734863</v>
+        <v>-4.940000057220459</v>
       </c>
     </row>
     <row r="17">
@@ -1065,37 +1065,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04856662079691887</v>
+        <v>0.09547995030879974</v>
       </c>
       <c r="G17" t="n">
-        <v>72.74523162841797</v>
+        <v>70.00921630859375</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6649553775787354</v>
+        <v>0.4169521331787109</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.013845920562744</v>
+        <v>-6.059756278991699</v>
       </c>
       <c r="J17" t="n">
-        <v>72.55000305175781</v>
+        <v>69.98000335693359</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7200000286102295</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="L17" t="n">
-        <v>-6.099999904632568</v>
+        <v>-6.329999923706055</v>
       </c>
     </row>
     <row r="18">
@@ -1103,37 +1103,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5215611457824707</v>
+        <v>0.3631256222724915</v>
       </c>
       <c r="G18" t="n">
-        <v>65.00570678710938</v>
+        <v>76.89326477050781</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5015515089035034</v>
+        <v>0.840654730796814</v>
       </c>
       <c r="I18" t="n">
-        <v>-5.799136161804199</v>
+        <v>-3.497383594512939</v>
       </c>
       <c r="J18" t="n">
-        <v>65.69000244140625</v>
+        <v>77.23999786376953</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="L18" t="n">
-        <v>-6.03000020980835</v>
+        <v>-3.880000114440918</v>
       </c>
     </row>
     <row r="19">
@@ -1141,37 +1141,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.009999999776482582</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02310257777571678</v>
+        <v>0.3819036185741425</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22393035888672</v>
+        <v>71.49224853515625</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3431641161441803</v>
+        <v>0.2861971259117126</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.355728387832642</v>
+        <v>-3.632370471954346</v>
       </c>
       <c r="J19" t="n">
-        <v>68.08999633789062</v>
+        <v>71.48999786376953</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2800000011920929</v>
+        <v>-0.009999999776482582</v>
       </c>
       <c r="L19" t="n">
-        <v>-3.390000104904175</v>
+        <v>-3.089999914169312</v>
       </c>
     </row>
     <row r="20">
@@ -1179,37 +1179,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02198797464370728</v>
+        <v>0.0769340842962265</v>
       </c>
       <c r="G20" t="n">
-        <v>65.72816467285156</v>
+        <v>69.78248596191406</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7351138591766357</v>
+        <v>0.3455018401145935</v>
       </c>
       <c r="I20" t="n">
-        <v>-4.102701187133789</v>
+        <v>-3.321370124816895</v>
       </c>
       <c r="J20" t="n">
-        <v>65.83000183105469</v>
+        <v>69.52999877929688</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="L20" t="n">
-        <v>-4.179999828338623</v>
+        <v>-3.329999923706055</v>
       </c>
     </row>
     <row r="21">
@@ -1217,37 +1217,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C21" t="n">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01999999955296516</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8269267082214355</v>
+        <v>5.75394868850708</v>
       </c>
       <c r="G21" t="n">
-        <v>66.21878814697266</v>
+        <v>71.32555389404297</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6185411810874939</v>
+        <v>0.4601743817329407</v>
       </c>
       <c r="I21" t="n">
-        <v>-5.186059474945068</v>
+        <v>-6.699789047241211</v>
       </c>
       <c r="J21" t="n">
-        <v>65.30999755859375</v>
+        <v>69.04000091552734</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.7200000286102295</v>
       </c>
       <c r="L21" t="n">
-        <v>-5.179999828338623</v>
+        <v>-7.380000114440918</v>
       </c>
     </row>
     <row r="22">
@@ -1255,37 +1255,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>3500</v>
+        <v>60</v>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06847414374351501</v>
+        <v>3.12856912612915</v>
       </c>
       <c r="G22" t="n">
-        <v>67.91560363769531</v>
+        <v>72.30682373046875</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6946771144866943</v>
+        <v>0.5599346160888672</v>
       </c>
       <c r="I22" t="n">
-        <v>-6.385336399078369</v>
+        <v>-6.633201599121094</v>
       </c>
       <c r="J22" t="n">
-        <v>67.81999969482422</v>
+        <v>70.58000183105469</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7599999904632568</v>
+        <v>0.6700000166893005</v>
       </c>
       <c r="L22" t="n">
-        <v>-6.619999885559082</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="23">
@@ -1293,37 +1293,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
-        <v>0.009999999776482582</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0705091580748558</v>
+        <v>0.4685845673084259</v>
       </c>
       <c r="G23" t="n">
-        <v>67.33225250244141</v>
+        <v>78.16593933105469</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5930800437927246</v>
+        <v>0.8272498846054077</v>
       </c>
       <c r="I23" t="n">
-        <v>-4.010897636413574</v>
+        <v>-5.122512817382812</v>
       </c>
       <c r="J23" t="n">
-        <v>67.11000061035156</v>
+        <v>77.58999633789062</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.8700000047683716</v>
       </c>
       <c r="L23" t="n">
-        <v>-3.880000114440918</v>
+        <v>-5.489999771118164</v>
       </c>
     </row>
     <row r="24">
@@ -1331,37 +1331,37 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C24" t="n">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01229935698211193</v>
+        <v>1.779845714569092</v>
       </c>
       <c r="G24" t="n">
-        <v>63.04323959350586</v>
+        <v>69.33528900146484</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7519102096557617</v>
+        <v>0.343610405921936</v>
       </c>
       <c r="I24" t="n">
-        <v>-5.563710689544678</v>
+        <v>-4.496266841888428</v>
       </c>
       <c r="J24" t="n">
-        <v>63.08000183105469</v>
+        <v>70.66000366210938</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="L24" t="n">
-        <v>-5.539999961853027</v>
+        <v>-4.340000152587891</v>
       </c>
     </row>
     <row r="25">
@@ -1369,37 +1369,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" t="n">
-        <v>1500</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>1.141119122505188</v>
+        <v>0.6813243627548218</v>
       </c>
       <c r="G25" t="n">
-        <v>65.07581329345703</v>
+        <v>68.88697814941406</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4487292468547821</v>
+        <v>0.7089430689811707</v>
       </c>
       <c r="I25" t="n">
-        <v>-3.015578031539917</v>
+        <v>-5.403827667236328</v>
       </c>
       <c r="J25" t="n">
-        <v>66.13999938964844</v>
+        <v>68.09999847412109</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4099999964237213</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="L25" t="n">
-        <v>-3.099999904632568</v>
+        <v>-5.400000095367432</v>
       </c>
     </row>
     <row r="26">
@@ -1407,37 +1407,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C26" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09139837324619293</v>
+        <v>0.2369036972522736</v>
       </c>
       <c r="G26" t="n">
-        <v>63.99461364746094</v>
+        <v>72.88082885742188</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7145808935165405</v>
+        <v>0.6834816336631775</v>
       </c>
       <c r="I26" t="n">
-        <v>-5.408730983734131</v>
+        <v>-4.071507453918457</v>
       </c>
       <c r="J26" t="n">
-        <v>63.70999908447266</v>
+        <v>73.05000305175781</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7599999904632568</v>
+        <v>0.75</v>
       </c>
       <c r="L26" t="n">
-        <v>-5.5</v>
+        <v>-3.619999885559082</v>
       </c>
     </row>
     <row r="27">
@@ -1445,37 +1445,37 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1219802871346474</v>
+        <v>0.3413901627063751</v>
       </c>
       <c r="G27" t="n">
-        <v>72.18529510498047</v>
+        <v>71.7886962890625</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7986270189285278</v>
+        <v>0.1010429263114929</v>
       </c>
       <c r="I27" t="n">
-        <v>-6.310505867004395</v>
+        <v>-4.075452327728271</v>
       </c>
       <c r="J27" t="n">
-        <v>71.91999816894531</v>
+        <v>72.16000366210938</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6899999976158142</v>
+        <v>0.3799999952316284</v>
       </c>
       <c r="L27" t="n">
-        <v>-6.510000228881836</v>
+        <v>-4.429999828338623</v>
       </c>
     </row>
     <row r="28">
@@ -1483,37 +1483,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C28" t="n">
-        <v>4500</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1382782757282257</v>
+        <v>0.04552064090967178</v>
       </c>
       <c r="G28" t="n">
-        <v>73.02449035644531</v>
+        <v>69.37497711181641</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6928482055664062</v>
+        <v>0.3157752156257629</v>
       </c>
       <c r="I28" t="n">
-        <v>-6.026559829711914</v>
+        <v>-3.558085918426514</v>
       </c>
       <c r="J28" t="n">
-        <v>72.69999694824219</v>
+        <v>69.26000213623047</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7900000214576721</v>
+        <v>0.3400000035762787</v>
       </c>
       <c r="L28" t="n">
-        <v>-6.179999828338623</v>
+        <v>-3.380000114440918</v>
       </c>
     </row>
     <row r="29">
@@ -1521,37 +1521,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C29" t="n">
-        <v>3500</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05405800044536591</v>
+        <v>1.346949338912964</v>
       </c>
       <c r="G29" t="n">
-        <v>67.88124084472656</v>
+        <v>70.30230712890625</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5993212461471558</v>
+        <v>0.7304445505142212</v>
       </c>
       <c r="I29" t="n">
-        <v>-6.481447219848633</v>
+        <v>-5.93391227722168</v>
       </c>
       <c r="J29" t="n">
-        <v>68.02999877929688</v>
+        <v>69.16000366210938</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5400000214576721</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="L29" t="n">
-        <v>-6.650000095367432</v>
+        <v>-6.099999904632568</v>
       </c>
     </row>
     <row r="30">
@@ -1559,37 +1559,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>3500</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
         <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2784196436405182</v>
+        <v>0.3708398044109344</v>
       </c>
       <c r="G30" t="n">
-        <v>70.43386077880859</v>
+        <v>78.42066192626953</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7255476713180542</v>
+        <v>0.7264085412025452</v>
       </c>
       <c r="I30" t="n">
-        <v>-6.237222194671631</v>
+        <v>-4.376663684844971</v>
       </c>
       <c r="J30" t="n">
-        <v>69.94999694824219</v>
+        <v>78.27999877929688</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8100000023841858</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="L30" t="n">
-        <v>-6.429999828338623</v>
+        <v>-4.940000057220459</v>
       </c>
     </row>
     <row r="31">
@@ -1597,37 +1597,37 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09443850070238113</v>
+        <v>0.6074814796447754</v>
       </c>
       <c r="G31" t="n">
-        <v>66.48557281494141</v>
+        <v>71.28057861328125</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4614002108573914</v>
+        <v>0.1439028978347778</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.989298343658447</v>
+        <v>-3.746253490447998</v>
       </c>
       <c r="J31" t="n">
-        <v>66.25</v>
+        <v>72.04000091552734</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3600000143051147</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.819999933242798</v>
+        <v>-3.920000076293945</v>
       </c>
     </row>
     <row r="32">
@@ -1635,37 +1635,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C32" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E32" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6071708202362061</v>
+        <v>0.06099218502640724</v>
       </c>
       <c r="G32" t="n">
-        <v>65.48105621337891</v>
+        <v>73.55728149414062</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5796604156494141</v>
+        <v>0.7083210945129395</v>
       </c>
       <c r="I32" t="n">
-        <v>-3.134405136108398</v>
+        <v>-5.011734962463379</v>
       </c>
       <c r="J32" t="n">
-        <v>66.25</v>
+        <v>73.41999816894531</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6299999952316284</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="L32" t="n">
-        <v>-3.25</v>
+        <v>-4.929999828338623</v>
       </c>
     </row>
     <row r="33">
@@ -1673,37 +1673,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>2000</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
         <v>30</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>0.182136595249176</v>
+        <v>0.00652780570089817</v>
       </c>
       <c r="G33" t="n">
-        <v>67.66643524169922</v>
+        <v>69.98880767822266</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4662324488162994</v>
+        <v>0.6057257056236267</v>
       </c>
       <c r="I33" t="n">
-        <v>-5.541741847991943</v>
+        <v>-4.896836757659912</v>
       </c>
       <c r="J33" t="n">
-        <v>67.26999664306641</v>
+        <v>70.05000305175781</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5899999737739563</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="L33" t="n">
-        <v>-5.639999866485596</v>
+        <v>-4.849999904632568</v>
       </c>
     </row>
     <row r="34">
@@ -1711,37 +1711,37 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C34" t="n">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1011732518672943</v>
+        <v>0.123815193772316</v>
       </c>
       <c r="G34" t="n">
-        <v>64.70054626464844</v>
+        <v>75.43911743164062</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7224215269088745</v>
+        <v>0.172185480594635</v>
       </c>
       <c r="I34" t="n">
-        <v>-4.831868171691895</v>
+        <v>-4.899368286132812</v>
       </c>
       <c r="J34" t="n">
-        <v>64.87000274658203</v>
+        <v>75.26000213623047</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="L34" t="n">
-        <v>-4.610000133514404</v>
+        <v>-5.019999980926514</v>
       </c>
     </row>
     <row r="35">
@@ -1749,37 +1749,37 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>5000</v>
+        <v>60</v>
       </c>
       <c r="D35" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4084483981132507</v>
+        <v>0.479539692401886</v>
       </c>
       <c r="G35" t="n">
-        <v>74.36449432373047</v>
+        <v>69.29008483886719</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7572782039642334</v>
+        <v>0.3658831715583801</v>
       </c>
       <c r="I35" t="n">
-        <v>-5.974009990692139</v>
+        <v>-3.553153514862061</v>
       </c>
       <c r="J35" t="n">
-        <v>73.79000091552734</v>
+        <v>68.63999938964844</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7099999785423279</v>
+        <v>0.1400000005960464</v>
       </c>
       <c r="L35" t="n">
-        <v>-6.25</v>
+        <v>-3.630000114440918</v>
       </c>
     </row>
     <row r="36">
@@ -1787,37 +1787,37 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C36" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
         <v>30</v>
       </c>
       <c r="E36" t="n">
-        <v>0.009999999776482582</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1271859407424927</v>
+        <v>0.04892761260271072</v>
       </c>
       <c r="G36" t="n">
-        <v>69.53311157226562</v>
+        <v>73.74546813964844</v>
       </c>
       <c r="H36" t="n">
-        <v>0.330597847700119</v>
+        <v>0.7755054235458374</v>
       </c>
       <c r="I36" t="n">
-        <v>-4.218832015991211</v>
+        <v>-4.428847312927246</v>
       </c>
       <c r="J36" t="n">
-        <v>69.83000183105469</v>
+        <v>73.87000274658203</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1899999976158142</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="L36" t="n">
-        <v>-4.079999923706055</v>
+        <v>-4.480000019073486</v>
       </c>
     </row>
     <row r="37">
@@ -1825,37 +1825,37 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C37" t="n">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>0.009999999776482582</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>8.384243965148926</v>
+        <v>0.0919514000415802</v>
       </c>
       <c r="G37" t="n">
-        <v>73.10662078857422</v>
+        <v>69.7042236328125</v>
       </c>
       <c r="H37" t="n">
-        <v>0.09523987770080566</v>
+        <v>0.4906783103942871</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.114696979522705</v>
+        <v>-3.9668869972229</v>
       </c>
       <c r="J37" t="n">
-        <v>75.98999786376953</v>
+        <v>69.54000091552734</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.1700000017881393</v>
+        <v>0.7400000095367432</v>
       </c>
       <c r="L37" t="n">
-        <v>-3.119999885559082</v>
+        <v>-4.019999980926514</v>
       </c>
     </row>
     <row r="38">
@@ -1863,37 +1863,37 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C38" t="n">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05541030317544937</v>
+        <v>2.42074179649353</v>
       </c>
       <c r="G38" t="n">
-        <v>70.65518951416016</v>
+        <v>70.46702575683594</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6870321035385132</v>
+        <v>0.2297630310058594</v>
       </c>
       <c r="I38" t="n">
-        <v>-4.858250617980957</v>
+        <v>-2.975879669189453</v>
       </c>
       <c r="J38" t="n">
-        <v>70.68000030517578</v>
+        <v>69.08999633789062</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7200000286102295</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="L38" t="n">
-        <v>-5.090000152587891</v>
+        <v>-2.259999990463257</v>
       </c>
     </row>
     <row r="39">
@@ -1901,37 +1901,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="D39" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>0.009999999776482582</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0386834517121315</v>
+        <v>0.2731326818466187</v>
       </c>
       <c r="G39" t="n">
-        <v>64.12928771972656</v>
+        <v>69.14251708984375</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6976116895675659</v>
+        <v>0.422536313533783</v>
       </c>
       <c r="I39" t="n">
-        <v>-3.713255405426025</v>
+        <v>-4.504434108734131</v>
       </c>
       <c r="J39" t="n">
-        <v>63.95999908447266</v>
+        <v>69.66000366210938</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6200000047683716</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="L39" t="n">
-        <v>-3.650000095367432</v>
+        <v>-4.559999942779541</v>
       </c>
     </row>
     <row r="40">
@@ -1939,37 +1939,37 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2137542963027954</v>
+        <v>3.86128830909729</v>
       </c>
       <c r="G40" t="n">
-        <v>66.49948883056641</v>
+        <v>70.5194091796875</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5679624676704407</v>
+        <v>0.4678550362586975</v>
       </c>
       <c r="I40" t="n">
-        <v>-4.275027275085449</v>
+        <v>-5.187226295471191</v>
       </c>
       <c r="J40" t="n">
-        <v>66.22000122070312</v>
+        <v>68.55999755859375</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4699999988079071</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="L40" t="n">
-        <v>-3.920000076293945</v>
+        <v>-5.039999961853027</v>
       </c>
     </row>
     <row r="41">
@@ -1977,37 +1977,37 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
+        <v>31</v>
+      </c>
+      <c r="C41" t="n">
         <v>40</v>
       </c>
-      <c r="C41" t="n">
-        <v>5000</v>
-      </c>
       <c r="D41" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04462853819131851</v>
+        <v>0.1838614344596863</v>
       </c>
       <c r="G41" t="n">
-        <v>73.89944458007812</v>
+        <v>70.56139373779297</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5236678719520569</v>
+        <v>0.2172048687934875</v>
       </c>
       <c r="I41" t="n">
-        <v>-5.511826038360596</v>
+        <v>-4.014675140380859</v>
       </c>
       <c r="J41" t="n">
-        <v>73.75</v>
+        <v>70.90000152587891</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6100000143051147</v>
+        <v>0.4300000071525574</v>
       </c>
       <c r="L41" t="n">
-        <v>-5.389999866485596</v>
+        <v>-3.859999895095825</v>
       </c>
     </row>
     <row r="42">
@@ -2015,37 +2015,37 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C42" t="n">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02606353722512722</v>
+        <v>0.07257010787725449</v>
       </c>
       <c r="G42" t="n">
-        <v>63.22676086425781</v>
+        <v>69.37405395507812</v>
       </c>
       <c r="H42" t="n">
-        <v>0.658284068107605</v>
+        <v>0.5490605235099792</v>
       </c>
       <c r="I42" t="n">
-        <v>-5.74505615234375</v>
+        <v>-4.165287017822266</v>
       </c>
       <c r="J42" t="n">
-        <v>63.20999908447266</v>
+        <v>69.41999816894531</v>
       </c>
       <c r="K42" t="n">
-        <v>0.699999988079071</v>
+        <v>0.5400000214576721</v>
       </c>
       <c r="L42" t="n">
-        <v>-5.590000152587891</v>
+        <v>-3.900000095367432</v>
       </c>
     </row>
     <row r="43">
@@ -2053,37 +2053,37 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C43" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="D43" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>0.009999999776482582</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05343406647443771</v>
+        <v>1.564872860908508</v>
       </c>
       <c r="G43" t="n">
-        <v>72.72116851806641</v>
+        <v>73.64603424072266</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3132791519165039</v>
+        <v>-0.03328263759613037</v>
       </c>
       <c r="I43" t="n">
-        <v>-4.627323627471924</v>
+        <v>-3.690939903259277</v>
       </c>
       <c r="J43" t="n">
-        <v>72.52999877929688</v>
+        <v>74.80999755859375</v>
       </c>
       <c r="K43" t="n">
-        <v>0.239999994635582</v>
+        <v>-0.239999994635582</v>
       </c>
       <c r="L43" t="n">
-        <v>-4.519999980926514</v>
+        <v>-4.099999904632568</v>
       </c>
     </row>
     <row r="44">
@@ -2091,37 +2091,37 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C44" t="n">
-        <v>3500</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0009359397226944566</v>
+        <v>0.1280663311481476</v>
       </c>
       <c r="G44" t="n">
-        <v>73.51880645751953</v>
+        <v>68.51792907714844</v>
       </c>
       <c r="H44" t="n">
-        <v>0.601626992225647</v>
+        <v>0.6584165096282959</v>
       </c>
       <c r="I44" t="n">
-        <v>-6.304359912872314</v>
+        <v>-4.450538635253906</v>
       </c>
       <c r="J44" t="n">
-        <v>73.54000091552734</v>
+        <v>68.20999908447266</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5799999833106995</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="L44" t="n">
-        <v>-6.300000190734863</v>
+        <v>-4.610000133514404</v>
       </c>
     </row>
     <row r="45">
@@ -2129,37 +2129,37 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C45" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="D45" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5800855159759521</v>
+        <v>0.9991816878318787</v>
       </c>
       <c r="G45" t="n">
-        <v>69.73390197753906</v>
+        <v>70.06104278564453</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7256860733032227</v>
+        <v>0.480579674243927</v>
       </c>
       <c r="I45" t="n">
-        <v>-6.936145305633545</v>
+        <v>-5.54289722442627</v>
       </c>
       <c r="J45" t="n">
-        <v>70.48999786376953</v>
+        <v>71.05000305175781</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7799999713897705</v>
+        <v>0.3400000035762787</v>
       </c>
       <c r="L45" t="n">
-        <v>-7.010000228881836</v>
+        <v>-5.579999923706055</v>
       </c>
     </row>
     <row r="46">
@@ -2167,37 +2167,37 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C46" t="n">
-        <v>1500</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>2.555032730102539</v>
+        <v>0.1275570690631866</v>
       </c>
       <c r="G46" t="n">
-        <v>70.07654571533203</v>
+        <v>68.15489959716797</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2576755583286285</v>
+        <v>0.5265904068946838</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.244671821594238</v>
+        <v>-4.343514919281006</v>
       </c>
       <c r="J46" t="n">
-        <v>71.66000366210938</v>
+        <v>68.22000122070312</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1599999964237213</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="L46" t="n">
-        <v>-3.440000057220459</v>
+        <v>-4.019999980926514</v>
       </c>
     </row>
     <row r="47">
@@ -2205,37 +2205,37 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" t="n">
-        <v>2500</v>
+        <v>60</v>
       </c>
       <c r="D47" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1713979840278625</v>
+        <v>1.378773808479309</v>
       </c>
       <c r="G47" t="n">
-        <v>68.10132598876953</v>
+        <v>69.32574462890625</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7169374227523804</v>
+        <v>0.3711971044540405</v>
       </c>
       <c r="I47" t="n">
-        <v>-4.582794666290283</v>
+        <v>-4.585494995117188</v>
       </c>
       <c r="J47" t="n">
-        <v>67.69000244140625</v>
+        <v>68.16999816894531</v>
       </c>
       <c r="K47" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="L47" t="n">
-        <v>-4.579999923706055</v>
+        <v>-4.730000019073486</v>
       </c>
     </row>
     <row r="48">
@@ -2243,37 +2243,37 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C48" t="n">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="D48" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1095833852887154</v>
+        <v>0.917797863483429</v>
       </c>
       <c r="G48" t="n">
-        <v>69.01812744140625</v>
+        <v>70.42826843261719</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6185868978500366</v>
+        <v>0.6294432878494263</v>
       </c>
       <c r="I48" t="n">
-        <v>-5.82403039932251</v>
+        <v>-6.283944129943848</v>
       </c>
       <c r="J48" t="n">
-        <v>68.70999908447266</v>
+        <v>71.37999725341797</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="L48" t="n">
-        <v>-5.800000190734863</v>
+        <v>-6.329999923706055</v>
       </c>
     </row>
     <row r="49">
@@ -2281,37 +2281,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C49" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01006618514657021</v>
+        <v>0.2113113254308701</v>
       </c>
       <c r="G49" t="n">
-        <v>70.31424713134766</v>
+        <v>75.91336059570312</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6762092113494873</v>
+        <v>0.8381078839302063</v>
       </c>
       <c r="I49" t="n">
-        <v>-4.906535625457764</v>
+        <v>-4.796762943267822</v>
       </c>
       <c r="J49" t="n">
-        <v>70.26999664306641</v>
+        <v>75.88999938964844</v>
       </c>
       <c r="K49" t="n">
-        <v>0.7099999785423279</v>
+        <v>0.9900000095367432</v>
       </c>
       <c r="L49" t="n">
-        <v>-4.989999771118164</v>
+        <v>-5.230000019073486</v>
       </c>
     </row>
     <row r="50">
@@ -2319,37 +2319,37 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C50" t="n">
-        <v>3500</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01999999955296516</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007101156748831272</v>
+        <v>0.4207310974597931</v>
       </c>
       <c r="G50" t="n">
-        <v>69.78235626220703</v>
+        <v>73.47679138183594</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5290046334266663</v>
+        <v>1.021460056304932</v>
       </c>
       <c r="I50" t="n">
-        <v>-5.158331871032715</v>
+        <v>-6.215727806091309</v>
       </c>
       <c r="J50" t="n">
-        <v>69.83000183105469</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="L50" t="n">
-        <v>-5.150000095367432</v>
+        <v>-6.269999980926514</v>
       </c>
     </row>
     <row r="51">
@@ -2357,37 +2357,37 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C51" t="n">
-        <v>3000</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>0.06161569431424141</v>
+        <v>0.3489498794078827</v>
       </c>
       <c r="G51" t="n">
-        <v>68.01068878173828</v>
+        <v>71.47473907470703</v>
       </c>
       <c r="H51" t="n">
-        <v>0.7404025793075562</v>
+        <v>0.8889455795288086</v>
       </c>
       <c r="I51" t="n">
-        <v>-5.977057933807373</v>
+        <v>-6.285706520080566</v>
       </c>
       <c r="J51" t="n">
-        <v>67.77999877929688</v>
+        <v>72.05999755859375</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7900000214576721</v>
+        <v>0.8299999833106995</v>
       </c>
       <c r="L51" t="n">
-        <v>-5.900000095367432</v>
+        <v>-6.340000152587891</v>
       </c>
     </row>
     <row r="52">
@@ -2395,37 +2395,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C52" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="D52" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7832197546958923</v>
+        <v>0.2199509888887405</v>
       </c>
       <c r="G52" t="n">
-        <v>63.40198516845703</v>
+        <v>71.39096069335938</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7979351282119751</v>
+        <v>0.1706781387329102</v>
       </c>
       <c r="I52" t="n">
-        <v>-5.58901834487915</v>
+        <v>-3.75236701965332</v>
       </c>
       <c r="J52" t="n">
-        <v>64.20999908447266</v>
+        <v>71.06999969482422</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7599999904632568</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="L52" t="n">
-        <v>-5.230000019073486</v>
+        <v>-4.059999942779541</v>
       </c>
     </row>
     <row r="53">
@@ -2433,37 +2433,37 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C53" t="n">
-        <v>5000</v>
+        <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>0.08488498628139496</v>
+        <v>0.05810248851776123</v>
       </c>
       <c r="G53" t="n">
-        <v>71.43939208984375</v>
+        <v>69.90096282958984</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6633182764053345</v>
+        <v>0.177211582660675</v>
       </c>
       <c r="I53" t="n">
-        <v>-6.492505073547363</v>
+        <v>-3.554773807525635</v>
       </c>
       <c r="J53" t="n">
-        <v>71.33999633789062</v>
+        <v>70.08000183105469</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8799999952316284</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="L53" t="n">
-        <v>-6.659999847412109</v>
+        <v>-3.630000114440918</v>
       </c>
     </row>
     <row r="54">
@@ -2471,37 +2471,37 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C54" t="n">
-        <v>1500</v>
+        <v>45</v>
       </c>
       <c r="D54" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E54" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1780673712491989</v>
+        <v>0.1221945658326149</v>
       </c>
       <c r="G54" t="n">
-        <v>66.80603790283203</v>
+        <v>68.72613525390625</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2777235209941864</v>
+        <v>0.8605338931083679</v>
       </c>
       <c r="I54" t="n">
-        <v>-2.891332626342773</v>
+        <v>-6.645663738250732</v>
       </c>
       <c r="J54" t="n">
-        <v>66.47000122070312</v>
+        <v>68.61000061035156</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="L54" t="n">
-        <v>-3.069999933242798</v>
+        <v>-6.860000133514404</v>
       </c>
     </row>
     <row r="55">
@@ -2509,37 +2509,37 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C55" t="n">
-        <v>1500</v>
+        <v>20</v>
       </c>
       <c r="D55" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1167510449886322</v>
+        <v>0.1685216426849365</v>
       </c>
       <c r="G55" t="n">
-        <v>66.43054962158203</v>
+        <v>69.83186340332031</v>
       </c>
       <c r="H55" t="n">
-        <v>0.684806227684021</v>
+        <v>0.7559202313423157</v>
       </c>
       <c r="I55" t="n">
-        <v>-5.121011257171631</v>
+        <v>-4.16019344329834</v>
       </c>
       <c r="J55" t="n">
-        <v>66.48999786376953</v>
+        <v>69.98000335693359</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4699999988079071</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="L55" t="n">
-        <v>-5.380000114440918</v>
+        <v>-3.930000066757202</v>
       </c>
     </row>
     <row r="56">
@@ -2547,37 +2547,37 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C56" t="n">
-        <v>3500</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E56" t="n">
-        <v>0.009999999776482582</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1723888367414474</v>
+        <v>0.3646291494369507</v>
       </c>
       <c r="G56" t="n">
-        <v>68.94715118408203</v>
+        <v>74.98157501220703</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4481878578662872</v>
+        <v>0.7879684567451477</v>
       </c>
       <c r="I56" t="n">
-        <v>-4.100861549377441</v>
+        <v>-3.605669021606445</v>
       </c>
       <c r="J56" t="n">
-        <v>68.55000305175781</v>
+        <v>74.44000244140625</v>
       </c>
       <c r="K56" t="n">
-        <v>0.3499999940395355</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="L56" t="n">
-        <v>-4.03000020980835</v>
+        <v>-3.759999990463257</v>
       </c>
     </row>
     <row r="57">
@@ -2585,37 +2585,37 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C57" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="D57" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1310071647167206</v>
+        <v>0.1692076772451401</v>
       </c>
       <c r="G57" t="n">
-        <v>72.51217651367188</v>
+        <v>69.79843139648438</v>
       </c>
       <c r="H57" t="n">
-        <v>0.6752947568893433</v>
+        <v>0.3621072769165039</v>
       </c>
       <c r="I57" t="n">
-        <v>-6.523462772369385</v>
+        <v>-4.157311916351318</v>
       </c>
       <c r="J57" t="n">
-        <v>72.22000122070312</v>
+        <v>69.94000244140625</v>
       </c>
       <c r="K57" t="n">
-        <v>0.800000011920929</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="L57" t="n">
-        <v>-6.349999904632568</v>
+        <v>-4.539999961853027</v>
       </c>
     </row>
     <row r="58">
@@ -2623,37 +2623,37 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C58" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="D58" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>0.006153352558612823</v>
+        <v>2.67981481552124</v>
       </c>
       <c r="G58" t="n">
-        <v>67.68045043945312</v>
+        <v>75.32012176513672</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5630581974983215</v>
+        <v>-0.1464952826499939</v>
       </c>
       <c r="I58" t="n">
-        <v>-4.159510135650635</v>
+        <v>-4.113580703735352</v>
       </c>
       <c r="J58" t="n">
-        <v>67.62000274658203</v>
+        <v>76.93000030517578</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5699999928474426</v>
+        <v>-0.009999999776482582</v>
       </c>
       <c r="L58" t="n">
-        <v>-4.110000133514404</v>
+        <v>-3.849999904632568</v>
       </c>
     </row>
     <row r="59">
@@ -2661,37 +2661,37 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C59" t="n">
-        <v>1000</v>
+        <v>45</v>
       </c>
       <c r="D59" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>0.191659078001976</v>
+        <v>0.05109068751335144</v>
       </c>
       <c r="G59" t="n">
-        <v>68.2459716796875</v>
+        <v>68.98211669921875</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3194776475429535</v>
+        <v>0.2507033348083496</v>
       </c>
       <c r="I59" t="n">
-        <v>-4.013280868530273</v>
+        <v>-3.600405216217041</v>
       </c>
       <c r="J59" t="n">
-        <v>68.62999725341797</v>
+        <v>68.81999969482422</v>
       </c>
       <c r="K59" t="n">
-        <v>0.4699999988079071</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="L59" t="n">
-        <v>-4.159999847412109</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="60">
@@ -2699,37 +2699,37 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>4500</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>0.03074774891138077</v>
+        <v>0.218530684709549</v>
       </c>
       <c r="G60" t="n">
-        <v>69.30165100097656</v>
+        <v>72.79398345947266</v>
       </c>
       <c r="H60" t="n">
-        <v>0.773242712020874</v>
+        <v>0.9360330700874329</v>
       </c>
       <c r="I60" t="n">
-        <v>-6.250782489776611</v>
+        <v>-6.305559158325195</v>
       </c>
       <c r="J60" t="n">
-        <v>69.44000244140625</v>
+        <v>73.18000030517578</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="L60" t="n">
-        <v>-6.21999979019165</v>
+        <v>-6.059999942779541</v>
       </c>
     </row>
     <row r="61">
@@ -2737,37 +2737,37 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
-        <v>4500</v>
+        <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>0.05397749692201614</v>
+        <v>0.182506337761879</v>
       </c>
       <c r="G61" t="n">
-        <v>70.81644439697266</v>
+        <v>68.64968872070312</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6174447536468506</v>
+        <v>0.3754842281341553</v>
       </c>
       <c r="I61" t="n">
-        <v>-5.261612415313721</v>
+        <v>-6.590450763702393</v>
       </c>
       <c r="J61" t="n">
-        <v>70.69999694824219</v>
+        <v>68.26999664306641</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="L61" t="n">
-        <v>-5.460000038146973</v>
+        <v>-6.400000095367432</v>
       </c>
     </row>
     <row r="62">
@@ -2775,34 +2775,34 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C62" t="n">
-        <v>5000</v>
+        <v>60</v>
       </c>
       <c r="D62" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E62" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>0.02456779964268208</v>
+        <v>0.07320448011159897</v>
       </c>
       <c r="G62" t="n">
-        <v>73.96973419189453</v>
+        <v>71.52886199951172</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7866042852401733</v>
+        <v>0.3387587666511536</v>
       </c>
       <c r="I62" t="n">
-        <v>-6.388011455535889</v>
+        <v>-6.404104232788086</v>
       </c>
       <c r="J62" t="n">
-        <v>74.08999633789062</v>
+        <v>71.76999664306641</v>
       </c>
       <c r="K62" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.2599999904632568</v>
       </c>
       <c r="L62" t="n">
         <v>-6.309999942779541</v>
@@ -2813,37 +2813,37 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C63" t="n">
-        <v>4500</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2909279763698578</v>
+        <v>0.05517517030239105</v>
       </c>
       <c r="G63" t="n">
-        <v>75.95912170410156</v>
+        <v>68.7789306640625</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7093315124511719</v>
+        <v>0.4671335220336914</v>
       </c>
       <c r="I63" t="n">
-        <v>-6.197788238525391</v>
+        <v>-4.279175758361816</v>
       </c>
       <c r="J63" t="n">
-        <v>75.44000244140625</v>
+        <v>68.62000274658203</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7900000214576721</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="L63" t="n">
-        <v>-6.320000171661377</v>
+        <v>-4.449999809265137</v>
       </c>
     </row>
     <row r="64">
@@ -2851,37 +2851,37 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C64" t="n">
-        <v>3500</v>
+        <v>60</v>
       </c>
       <c r="D64" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6453245282173157</v>
+        <v>0.2971111834049225</v>
       </c>
       <c r="G64" t="n">
-        <v>73.93286895751953</v>
+        <v>70.88020324707031</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5323419570922852</v>
+        <v>0.2975905537605286</v>
       </c>
       <c r="I64" t="n">
-        <v>-5.110357284545898</v>
+        <v>-4.019938468933105</v>
       </c>
       <c r="J64" t="n">
-        <v>73.13999938964844</v>
+        <v>70.48000335693359</v>
       </c>
       <c r="K64" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="L64" t="n">
-        <v>-5.130000114440918</v>
+        <v>-4.389999866485596</v>
       </c>
     </row>
     <row r="65">
@@ -2889,37 +2889,37 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C65" t="n">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="D65" t="n">
         <v>30</v>
       </c>
       <c r="E65" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>2.223518371582031</v>
+        <v>0.1487868428230286</v>
       </c>
       <c r="G65" t="n">
-        <v>66.32208251953125</v>
+        <v>71.74082183837891</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4479294717311859</v>
+        <v>0.5913520455360413</v>
       </c>
       <c r="I65" t="n">
-        <v>-6.498746395111084</v>
+        <v>-6.63084602355957</v>
       </c>
       <c r="J65" t="n">
-        <v>64.94000244140625</v>
+        <v>71.51999664306641</v>
       </c>
       <c r="K65" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.7400000095367432</v>
       </c>
       <c r="L65" t="n">
-        <v>-5.960000038146973</v>
+        <v>-6.909999847412109</v>
       </c>
     </row>
     <row r="66">
@@ -2927,37 +2927,37 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C66" t="n">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="D66" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>0.08858944475650787</v>
+        <v>0.2434706091880798</v>
       </c>
       <c r="G66" t="n">
-        <v>71.21056365966797</v>
+        <v>72.61097717285156</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4899435639381409</v>
+        <v>0.141481339931488</v>
       </c>
       <c r="I66" t="n">
-        <v>-5.212984561920166</v>
+        <v>-3.873113632202148</v>
       </c>
       <c r="J66" t="n">
-        <v>71.08999633789062</v>
+        <v>73.02999877929688</v>
       </c>
       <c r="K66" t="n">
-        <v>0.6399999856948853</v>
+        <v>0.25</v>
       </c>
       <c r="L66" t="n">
-        <v>-5.440000057220459</v>
+        <v>-4.110000133514404</v>
       </c>
     </row>
     <row r="67">
@@ -2965,37 +2965,37 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C67" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="D67" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>0.03054832480847836</v>
+        <v>0.02050580643117428</v>
       </c>
       <c r="G67" t="n">
-        <v>67.70491790771484</v>
+        <v>70.61067962646484</v>
       </c>
       <c r="H67" t="n">
-        <v>0.698656439781189</v>
+        <v>0.7190855145454407</v>
       </c>
       <c r="I67" t="n">
-        <v>-6.4062180519104</v>
+        <v>-6.752773284912109</v>
       </c>
       <c r="J67" t="n">
-        <v>67.76999664306641</v>
+        <v>70.62000274658203</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5400000214576721</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="L67" t="n">
-        <v>-6.440000057220459</v>
+        <v>-6.71999979019165</v>
       </c>
     </row>
     <row r="68">
@@ -3003,37 +3003,37 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C68" t="n">
-        <v>4000</v>
+        <v>60</v>
       </c>
       <c r="D68" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0294930599629879</v>
+        <v>0.3308321535587311</v>
       </c>
       <c r="G68" t="n">
-        <v>69.16346740722656</v>
+        <v>75.76905822753906</v>
       </c>
       <c r="H68" t="n">
-        <v>0.6006386280059814</v>
+        <v>0.3427860736846924</v>
       </c>
       <c r="I68" t="n">
-        <v>-6.568211555480957</v>
+        <v>-6.139628410339355</v>
       </c>
       <c r="J68" t="n">
-        <v>69.02999877929688</v>
+        <v>76.22000122070312</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="L68" t="n">
-        <v>-6.650000095367432</v>
+        <v>-5.809999942779541</v>
       </c>
     </row>
     <row r="69">
@@ -3041,37 +3041,37 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C69" t="n">
-        <v>4500</v>
+        <v>60</v>
       </c>
       <c r="D69" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>0.003784467931836843</v>
+        <v>0.6810327172279358</v>
       </c>
       <c r="G69" t="n">
-        <v>76.86486053466797</v>
+        <v>77.23890686035156</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6956335306167603</v>
+        <v>0.1057226061820984</v>
       </c>
       <c r="I69" t="n">
-        <v>-6.359339714050293</v>
+        <v>-5.563702583312988</v>
       </c>
       <c r="J69" t="n">
-        <v>76.91999816894531</v>
+        <v>78.02999877929688</v>
       </c>
       <c r="K69" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.1299999952316284</v>
       </c>
       <c r="L69" t="n">
-        <v>-6.349999904632568</v>
+        <v>-5.329999923706055</v>
       </c>
     </row>
     <row r="70">
@@ -3079,37 +3079,37 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
-        <v>2500</v>
+        <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E70" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1365278661251068</v>
+        <v>0.03597301989793777</v>
       </c>
       <c r="G70" t="n">
-        <v>71.77158355712891</v>
+        <v>70.72862243652344</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3121958076953888</v>
+        <v>0.6638435125350952</v>
       </c>
       <c r="I70" t="n">
-        <v>-5.530062675476074</v>
+        <v>-4.838650703430176</v>
       </c>
       <c r="J70" t="n">
-        <v>71.59999847412109</v>
+        <v>70.61000061035156</v>
       </c>
       <c r="K70" t="n">
-        <v>0.07000000029802322</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="L70" t="n">
-        <v>-5.309999942779541</v>
+        <v>-4.980000019073486</v>
       </c>
     </row>
     <row r="71">
@@ -3117,37 +3117,37 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C71" t="n">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="D71" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>0.07853811234235764</v>
+        <v>0.1828867495059967</v>
       </c>
       <c r="G71" t="n">
-        <v>71.20890045166016</v>
+        <v>78.1688232421875</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6176796555519104</v>
+        <v>0.8680959939956665</v>
       </c>
       <c r="I71" t="n">
-        <v>-5.941603660583496</v>
+        <v>-3.819595813751221</v>
       </c>
       <c r="J71" t="n">
-        <v>71.04000091552734</v>
+        <v>78.37000274658203</v>
       </c>
       <c r="K71" t="n">
-        <v>0.4300000071525574</v>
+        <v>0.9800000190734863</v>
       </c>
       <c r="L71" t="n">
-        <v>-5.820000171661377</v>
+        <v>-4.179999828338623</v>
       </c>
     </row>
     <row r="72">
@@ -3155,37 +3155,37 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C72" t="n">
-        <v>4000</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1483953893184662</v>
+        <v>0.03596124053001404</v>
       </c>
       <c r="G72" t="n">
-        <v>72.71245574951172</v>
+        <v>68.32173156738281</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9256854057312012</v>
+        <v>0.4043968319892883</v>
       </c>
       <c r="I72" t="n">
-        <v>-6.653106689453125</v>
+        <v>-4.048855781555176</v>
       </c>
       <c r="J72" t="n">
-        <v>73.06999969482422</v>
+        <v>68.23999786376953</v>
       </c>
       <c r="K72" t="n">
-        <v>0.8199999928474426</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="L72" t="n">
-        <v>-6.75</v>
+        <v>-3.900000095367432</v>
       </c>
     </row>
     <row r="73">
@@ -3193,37 +3193,37 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C73" t="n">
-        <v>2500</v>
+        <v>45</v>
       </c>
       <c r="D73" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1659523397684097</v>
+        <v>0.103755958378315</v>
       </c>
       <c r="G73" t="n">
-        <v>65.88700103759766</v>
+        <v>68.49098205566406</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5410114526748657</v>
+        <v>0.5579763054847717</v>
       </c>
       <c r="I73" t="n">
-        <v>-6.227441310882568</v>
+        <v>-5.085632801055908</v>
       </c>
       <c r="J73" t="n">
-        <v>65.48000335693359</v>
+        <v>68.26000213623047</v>
       </c>
       <c r="K73" t="n">
-        <v>0.5400000214576721</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="L73" t="n">
-        <v>-6.210000038146973</v>
+        <v>-5.309999942779541</v>
       </c>
     </row>
     <row r="74">
@@ -3231,37 +3231,37 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C74" t="n">
-        <v>4000</v>
+        <v>60</v>
       </c>
       <c r="D74" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1509766429662704</v>
+        <v>1.799182891845703</v>
       </c>
       <c r="G74" t="n">
-        <v>69.53862762451172</v>
+        <v>75.601806640625</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7718046903610229</v>
+        <v>-0.01600152254104614</v>
       </c>
       <c r="I74" t="n">
-        <v>-5.933089733123779</v>
+        <v>-3.903214931488037</v>
       </c>
       <c r="J74" t="n">
-        <v>69.16000366210938</v>
+        <v>74.48000335693359</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7799999713897705</v>
+        <v>0.03999999910593033</v>
       </c>
       <c r="L74" t="n">
-        <v>-6.019999980926514</v>
+        <v>-3.170000076293945</v>
       </c>
     </row>
     <row r="75">
@@ -3269,37 +3269,37 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C75" t="n">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="D75" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7755659818649292</v>
+        <v>5.854225635528564</v>
       </c>
       <c r="G75" t="n">
-        <v>71.45950317382812</v>
+        <v>65.78013610839844</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6643551588058472</v>
+        <v>0.6354750394821167</v>
       </c>
       <c r="I75" t="n">
-        <v>-6.33484935760498</v>
+        <v>-3.668370246887207</v>
       </c>
       <c r="J75" t="n">
-        <v>70.58000183105469</v>
+        <v>68.19000244140625</v>
       </c>
       <c r="K75" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="L75" t="n">
-        <v>-6.289999961853027</v>
+        <v>-3.880000114440918</v>
       </c>
     </row>
     <row r="76">
@@ -3307,37 +3307,37 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C76" t="n">
-        <v>2000</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3079130351543427</v>
+        <v>1.356970071792603</v>
       </c>
       <c r="G76" t="n">
-        <v>64.92941284179688</v>
+        <v>70.3431396484375</v>
       </c>
       <c r="H76" t="n">
-        <v>0.6006476879119873</v>
+        <v>0.1830883622169495</v>
       </c>
       <c r="I76" t="n">
-        <v>-6.523276805877686</v>
+        <v>-3.8694748878479</v>
       </c>
       <c r="J76" t="n">
-        <v>64.44000244140625</v>
+        <v>71.5</v>
       </c>
       <c r="K76" t="n">
-        <v>0.8100000023841858</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="L76" t="n">
-        <v>-6.679999828338623</v>
+        <v>-3.900000095367432</v>
       </c>
     </row>
     <row r="77">
@@ -3345,37 +3345,37 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C77" t="n">
-        <v>5000</v>
+        <v>60</v>
       </c>
       <c r="D77" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>0.009999999776482582</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0166809968650341</v>
+        <v>0.01974222436547279</v>
       </c>
       <c r="G77" t="n">
-        <v>72.85028076171875</v>
+        <v>71.98251342773438</v>
       </c>
       <c r="H77" t="n">
-        <v>0.145991638302803</v>
+        <v>0.1554098725318909</v>
       </c>
       <c r="I77" t="n">
-        <v>-4.80072021484375</v>
+        <v>-3.903143882751465</v>
       </c>
       <c r="J77" t="n">
-        <v>72.94000244140625</v>
+        <v>72.08999633789062</v>
       </c>
       <c r="K77" t="n">
-        <v>0.1000000014901161</v>
+        <v>0.1299999952316284</v>
       </c>
       <c r="L77" t="n">
-        <v>-4.71999979019165</v>
+        <v>-3.990000009536743</v>
       </c>
     </row>
     <row r="78">
@@ -3383,37 +3383,37 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C78" t="n">
-        <v>4500</v>
+        <v>60</v>
       </c>
       <c r="D78" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E78" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003327975980937481</v>
+        <v>0.4037799835205078</v>
       </c>
       <c r="G78" t="n">
-        <v>71.55271148681641</v>
+        <v>70.52827453613281</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1230860352516174</v>
+        <v>0.323100209236145</v>
       </c>
       <c r="I78" t="n">
-        <v>-4.669022560119629</v>
+        <v>-5.238752365112305</v>
       </c>
       <c r="J78" t="n">
-        <v>71.58999633789062</v>
+        <v>71.15000152587891</v>
       </c>
       <c r="K78" t="n">
-        <v>0.07999999821186066</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="L78" t="n">
-        <v>-4.659999847412109</v>
+        <v>-5.369999885559082</v>
       </c>
     </row>
     <row r="79">
@@ -3421,37 +3421,37 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
-        <v>1500</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>0.05525153502821922</v>
+        <v>0.3540302515029907</v>
       </c>
       <c r="G79" t="n">
-        <v>65.59757232666016</v>
+        <v>68.55908203125</v>
       </c>
       <c r="H79" t="n">
-        <v>0.7727696895599365</v>
+        <v>0.4651666283607483</v>
       </c>
       <c r="I79" t="n">
-        <v>-4.143064498901367</v>
+        <v>-4.651390552520752</v>
       </c>
       <c r="J79" t="n">
-        <v>65.77999877929688</v>
+        <v>68.01999664306641</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="L79" t="n">
-        <v>-4.059999942779541</v>
+        <v>-4.400000095367432</v>
       </c>
     </row>
     <row r="80">
@@ -3459,37 +3459,37 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
-        <v>5000</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8758682012557983</v>
+        <v>0.06747106462717056</v>
       </c>
       <c r="G80" t="n">
-        <v>74.53809356689453</v>
+        <v>71.54497528076172</v>
       </c>
       <c r="H80" t="n">
-        <v>0.7303812503814697</v>
+        <v>0.7118343114852905</v>
       </c>
       <c r="I80" t="n">
-        <v>-6.044248104095459</v>
+        <v>-5.29182767868042</v>
       </c>
       <c r="J80" t="n">
-        <v>73.61000061035156</v>
+        <v>71.69000244140625</v>
       </c>
       <c r="K80" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="L80" t="n">
-        <v>-6.03000020980835</v>
+        <v>-5.389999866485596</v>
       </c>
     </row>
     <row r="81">
@@ -3497,34 +3497,34 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C81" t="n">
-        <v>4500</v>
+        <v>60</v>
       </c>
       <c r="D81" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>0.009999999776482582</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>0.02683241292834282</v>
+        <v>0.04199867695569992</v>
       </c>
       <c r="G81" t="n">
-        <v>71.71135711669922</v>
+        <v>71.31248474121094</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4413171708583832</v>
+        <v>0.1377748250961304</v>
       </c>
       <c r="I81" t="n">
-        <v>-4.13005256652832</v>
+        <v>-3.93211030960083</v>
       </c>
       <c r="J81" t="n">
-        <v>71.61000061035156</v>
+        <v>71.27999877929688</v>
       </c>
       <c r="K81" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="L81" t="n">
         <v>-4.130000114440918</v>
@@ -3535,37 +3535,37 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C82" t="n">
-        <v>1500</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
+        <v>4</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.3896609246730804</v>
+      </c>
+      <c r="G82" t="n">
+        <v>69.2144775390625</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.2414767146110535</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-4.463459491729736</v>
+      </c>
+      <c r="J82" t="n">
+        <v>68.68000030517578</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.02999999932944775</v>
       </c>
-      <c r="F82" t="n">
-        <v>0.4553276002407074</v>
-      </c>
-      <c r="G82" t="n">
-        <v>63.74896621704102</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.744691014289856</v>
-      </c>
-      <c r="I82" t="n">
-        <v>-5.079081058502197</v>
-      </c>
-      <c r="J82" t="n">
-        <v>63.13999938964844</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.8500000238418579</v>
-      </c>
       <c r="L82" t="n">
-        <v>-5.349999904632568</v>
+        <v>-4.21999979019165</v>
       </c>
     </row>
     <row r="83">
@@ -3573,37 +3573,37 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C83" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E83" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>0.05268234387040138</v>
+        <v>0.3369057476520538</v>
       </c>
       <c r="G83" t="n">
-        <v>73.03493499755859</v>
+        <v>76.95359802246094</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2262205481529236</v>
+        <v>0.752623438835144</v>
       </c>
       <c r="I83" t="n">
-        <v>-4.515810489654541</v>
+        <v>-4.14272403717041</v>
       </c>
       <c r="J83" t="n">
-        <v>72.83999633789062</v>
+        <v>76.86000061035156</v>
       </c>
       <c r="K83" t="n">
-        <v>0.1500000059604645</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="L83" t="n">
-        <v>-4.610000133514404</v>
+        <v>-4.699999809265137</v>
       </c>
     </row>
     <row r="84">
@@ -3611,37 +3611,37 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C84" t="n">
-        <v>2500</v>
+        <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E84" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02399154379963875</v>
+        <v>0.09457585960626602</v>
       </c>
       <c r="G84" t="n">
-        <v>70.30377960205078</v>
+        <v>78.89059448242188</v>
       </c>
       <c r="H84" t="n">
-        <v>0.7308719158172607</v>
+        <v>0.7490614652633667</v>
       </c>
       <c r="I84" t="n">
-        <v>-7.30258321762085</v>
+        <v>-3.726794719696045</v>
       </c>
       <c r="J84" t="n">
-        <v>70.38999938964844</v>
+        <v>78.83999633789062</v>
       </c>
       <c r="K84" t="n">
-        <v>0.7699999809265137</v>
+        <v>0.7400000095367432</v>
       </c>
       <c r="L84" t="n">
-        <v>-7.179999828338623</v>
+        <v>-4.03000020980835</v>
       </c>
     </row>
     <row r="85">
@@ -3649,37 +3649,37 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C85" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1417777538299561</v>
+        <v>0.135883629322052</v>
       </c>
       <c r="G85" t="n">
-        <v>66.01914215087891</v>
+        <v>70.83909606933594</v>
       </c>
       <c r="H85" t="n">
-        <v>0.7604826688766479</v>
+        <v>0.7953664064407349</v>
       </c>
       <c r="I85" t="n">
-        <v>-4.306464195251465</v>
+        <v>-4.284906387329102</v>
       </c>
       <c r="J85" t="n">
-        <v>66.38999938964844</v>
+        <v>71.16999816894531</v>
       </c>
       <c r="K85" t="n">
-        <v>0.8199999928474426</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="L85" t="n">
-        <v>-4.28000020980835</v>
+        <v>-4.400000095367432</v>
       </c>
     </row>
     <row r="86">
@@ -3687,37 +3687,37 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C86" t="n">
-        <v>1500</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04410227388143539</v>
+        <v>0.1403519809246063</v>
       </c>
       <c r="G86" t="n">
-        <v>67.95958709716797</v>
+        <v>73.05328369140625</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5092707276344299</v>
+        <v>-0.1238777041435242</v>
       </c>
       <c r="I86" t="n">
-        <v>-3.971136569976807</v>
+        <v>-3.83141040802002</v>
       </c>
       <c r="J86" t="n">
-        <v>67.80000305175781</v>
+        <v>73.34999847412109</v>
       </c>
       <c r="K86" t="n">
-        <v>0.4300000071525574</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="L86" t="n">
-        <v>-3.859999895095825</v>
+        <v>-3.980000019073486</v>
       </c>
     </row>
     <row r="87">
@@ -3725,37 +3725,37 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C87" t="n">
-        <v>4000</v>
+        <v>60</v>
       </c>
       <c r="D87" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>0.005606341175734997</v>
+        <v>0.2493884414434433</v>
       </c>
       <c r="G87" t="n">
-        <v>73.92571258544922</v>
+        <v>72.92449951171875</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6651517152786255</v>
+        <v>0.5729632377624512</v>
       </c>
       <c r="I87" t="n">
-        <v>-6.156454563140869</v>
+        <v>-6.373334407806396</v>
       </c>
       <c r="J87" t="n">
-        <v>73.91999816894531</v>
+        <v>72.47000122070312</v>
       </c>
       <c r="K87" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="L87" t="n">
-        <v>-6.119999885559082</v>
+        <v>-6.46999979019165</v>
       </c>
     </row>
     <row r="88">
@@ -3763,37 +3763,37 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C88" t="n">
-        <v>5000</v>
+        <v>60</v>
       </c>
       <c r="D88" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01999999955296516</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>0.23827064037323</v>
+        <v>1.015709638595581</v>
       </c>
       <c r="G88" t="n">
-        <v>72.71060943603516</v>
+        <v>75.66869354248047</v>
       </c>
       <c r="H88" t="n">
-        <v>0.6949294805526733</v>
+        <v>0.5038558840751648</v>
       </c>
       <c r="I88" t="n">
-        <v>-5.091734886169434</v>
+        <v>-6.134088516235352</v>
       </c>
       <c r="J88" t="n">
-        <v>72.26000213623047</v>
+        <v>76.62000274658203</v>
       </c>
       <c r="K88" t="n">
-        <v>0.8100000023841858</v>
+        <v>0.7300000190734863</v>
       </c>
       <c r="L88" t="n">
-        <v>-5.239999771118164</v>
+        <v>-5.889999866485596</v>
       </c>
     </row>
     <row r="89">
@@ -3801,37 +3801,37 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C89" t="n">
-        <v>4500</v>
+        <v>60</v>
       </c>
       <c r="D89" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3474749624729156</v>
+        <v>0.1282927393913269</v>
       </c>
       <c r="G89" t="n">
-        <v>70.69423675537109</v>
+        <v>72.63900756835938</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6198277473449707</v>
+        <v>0.006462156772613525</v>
       </c>
       <c r="I89" t="n">
-        <v>-6.61269998550415</v>
+        <v>-5.008491516113281</v>
       </c>
       <c r="J89" t="n">
-        <v>70.11000061035156</v>
+        <v>72.91999816894531</v>
       </c>
       <c r="K89" t="n">
-        <v>0.6600000262260437</v>
+        <v>-0.009999999776482582</v>
       </c>
       <c r="L89" t="n">
-        <v>-6.679999828338623</v>
+        <v>-5.230000019073486</v>
       </c>
     </row>
     <row r="90">
@@ -3839,37 +3839,37 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C90" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E90" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08263877779245377</v>
+        <v>2.222729206085205</v>
       </c>
       <c r="G90" t="n">
-        <v>64.16251373291016</v>
+        <v>74.328857421875</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4477920234203339</v>
+        <v>0.7586982846260071</v>
       </c>
       <c r="I90" t="n">
-        <v>-3.061529636383057</v>
+        <v>-4.331607818603516</v>
       </c>
       <c r="J90" t="n">
-        <v>63.91999816894531</v>
+        <v>74.70999908447266</v>
       </c>
       <c r="K90" t="n">
-        <v>0.4900000095367432</v>
+        <v>1.179999947547913</v>
       </c>
       <c r="L90" t="n">
-        <v>-3.210000038146973</v>
+        <v>-5.710000038146973</v>
       </c>
     </row>
     <row r="91">
@@ -3877,37 +3877,37 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C91" t="n">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="D91" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4682045578956604</v>
+        <v>0.3283279538154602</v>
       </c>
       <c r="G91" t="n">
-        <v>73.39290618896484</v>
+        <v>68.75138854980469</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3204774856567383</v>
+        <v>0.4399996399879456</v>
       </c>
       <c r="I91" t="n">
-        <v>-5.596200942993164</v>
+        <v>-3.560717105865479</v>
       </c>
       <c r="J91" t="n">
-        <v>72.73999786376953</v>
+        <v>69.23000335693359</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3400000035762787</v>
+        <v>0.3799999952316284</v>
       </c>
       <c r="L91" t="n">
-        <v>-5.800000190734863</v>
+        <v>-3.869999885559082</v>
       </c>
     </row>
     <row r="92">
@@ -3915,37 +3915,37 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C92" t="n">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="D92" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E92" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>1.672569394111633</v>
+        <v>0.08508287370204926</v>
       </c>
       <c r="G92" t="n">
-        <v>60.21856689453125</v>
+        <v>69.51438903808594</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9128754138946533</v>
+        <v>0.6796048879623413</v>
       </c>
       <c r="I92" t="n">
-        <v>-3.32628870010376</v>
+        <v>-5.891559600830078</v>
       </c>
       <c r="J92" t="n">
-        <v>59.0099983215332</v>
+        <v>69.80000305175781</v>
       </c>
       <c r="K92" t="n">
-        <v>1.230000019073486</v>
+        <v>0.6700000166893005</v>
       </c>
       <c r="L92" t="n">
-        <v>-3.660000085830688</v>
+        <v>-5.949999809265137</v>
       </c>
     </row>
     <row r="93">
@@ -3953,37 +3953,37 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C93" t="n">
-        <v>2500</v>
+        <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E93" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1396634131669998</v>
+        <v>0.0945010706782341</v>
       </c>
       <c r="G93" t="n">
-        <v>67.54469299316406</v>
+        <v>75.68692016601562</v>
       </c>
       <c r="H93" t="n">
-        <v>0.4043600857257843</v>
+        <v>0.6726650595664978</v>
       </c>
       <c r="I93" t="n">
-        <v>-4.609796524047852</v>
+        <v>-3.526125431060791</v>
       </c>
       <c r="J93" t="n">
-        <v>67.19000244140625</v>
+        <v>75.72000122070312</v>
       </c>
       <c r="K93" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.6399999856948853</v>
       </c>
       <c r="L93" t="n">
-        <v>-4.699999809265137</v>
+        <v>-3.829999923706055</v>
       </c>
     </row>
     <row r="94">
@@ -3991,37 +3991,37 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C94" t="n">
-        <v>4500</v>
+        <v>35</v>
       </c>
       <c r="D94" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E94" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09015844017267227</v>
+        <v>0.09365253895521164</v>
       </c>
       <c r="G94" t="n">
-        <v>70.07059478759766</v>
+        <v>68.66383361816406</v>
       </c>
       <c r="H94" t="n">
-        <v>0.7314437627792358</v>
+        <v>0.5085781216621399</v>
       </c>
       <c r="I94" t="n">
-        <v>-6.04896879196167</v>
+        <v>-4.509255409240723</v>
       </c>
       <c r="J94" t="n">
-        <v>69.80999755859375</v>
+        <v>68.41999816894531</v>
       </c>
       <c r="K94" t="n">
-        <v>0.7799999713897705</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="L94" t="n">
-        <v>-6.190000057220459</v>
+        <v>-4.670000076293945</v>
       </c>
     </row>
     <row r="95">
@@ -4029,37 +4029,37 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C95" t="n">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E95" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2045508623123169</v>
+        <v>0.1529695689678192</v>
       </c>
       <c r="G95" t="n">
-        <v>67.27650451660156</v>
+        <v>73.32281494140625</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6421725749969482</v>
+        <v>0.6917772889137268</v>
       </c>
       <c r="I95" t="n">
-        <v>-4.748284816741943</v>
+        <v>-4.827023029327393</v>
       </c>
       <c r="J95" t="n">
-        <v>67.16000366210938</v>
+        <v>73.01000213623047</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7099999785423279</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="L95" t="n">
-        <v>-5.179999828338623</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="96">
@@ -4067,37 +4067,37 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C96" t="n">
-        <v>4500</v>
+        <v>10</v>
       </c>
       <c r="D96" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E96" t="n">
-        <v>0.01999999955296516</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5490061044692993</v>
+        <v>0.1652832180261612</v>
       </c>
       <c r="G96" t="n">
-        <v>74.34073638916016</v>
+        <v>72.43850708007812</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5629879236221313</v>
+        <v>0.9868955016136169</v>
       </c>
       <c r="I96" t="n">
-        <v>-5.139831066131592</v>
+        <v>-6.037527084350586</v>
       </c>
       <c r="J96" t="n">
-        <v>73.61000061035156</v>
+        <v>72.38999938964844</v>
       </c>
       <c r="K96" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.8199999928474426</v>
       </c>
       <c r="L96" t="n">
-        <v>-5.079999923706055</v>
+        <v>-5.670000076293945</v>
       </c>
     </row>
     <row r="97">
@@ -4105,37 +4105,37 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C97" t="n">
-        <v>4000</v>
+        <v>30</v>
       </c>
       <c r="D97" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E97" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1530011892318726</v>
+        <v>0.07217399030923843</v>
       </c>
       <c r="G97" t="n">
-        <v>70.90973663330078</v>
+        <v>70.84049987792969</v>
       </c>
       <c r="H97" t="n">
-        <v>0.01271036267280579</v>
+        <v>0.6548645496368408</v>
       </c>
       <c r="I97" t="n">
-        <v>-4.454034805297852</v>
+        <v>-5.686861038208008</v>
       </c>
       <c r="J97" t="n">
-        <v>71.20999908447266</v>
+        <v>71</v>
       </c>
       <c r="K97" t="n">
-        <v>0.1400000005960464</v>
+        <v>0.5400000214576721</v>
       </c>
       <c r="L97" t="n">
-        <v>-4.670000076293945</v>
+        <v>-5.869999885559082</v>
       </c>
     </row>
     <row r="98">
@@ -4143,37 +4143,37 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C98" t="n">
-        <v>3000</v>
+        <v>45</v>
       </c>
       <c r="D98" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1204561367630959</v>
+        <v>0.4468059539794922</v>
       </c>
       <c r="G98" t="n">
-        <v>66.35124969482422</v>
+        <v>71.23000335693359</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6579451560974121</v>
+        <v>0.1013585925102234</v>
       </c>
       <c r="I98" t="n">
-        <v>-5.981439590454102</v>
+        <v>-4.085884094238281</v>
       </c>
       <c r="J98" t="n">
-        <v>66.04000091552734</v>
+        <v>71.86000061035156</v>
       </c>
       <c r="K98" t="n">
-        <v>0.8100000023841858</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="L98" t="n">
-        <v>-5.960000038146973</v>
+        <v>-4.039999961853027</v>
       </c>
     </row>
     <row r="99">
@@ -4181,37 +4181,37 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C99" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E99" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01977605558931828</v>
+        <v>0.008916139602661133</v>
       </c>
       <c r="G99" t="n">
-        <v>70.999267578125</v>
+        <v>79.29718780517578</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3552297949790955</v>
+        <v>0.8168643712997437</v>
       </c>
       <c r="I99" t="n">
-        <v>-4.419560432434082</v>
+        <v>-4.648271083831787</v>
       </c>
       <c r="J99" t="n">
-        <v>71.02999877929688</v>
+        <v>79.25</v>
       </c>
       <c r="K99" t="n">
-        <v>0.3100000023841858</v>
+        <v>0.8199999928474426</v>
       </c>
       <c r="L99" t="n">
-        <v>-4.289999961853027</v>
+        <v>-4.730000019073486</v>
       </c>
     </row>
     <row r="100">
@@ -4219,37 +4219,37 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="D100" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E100" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>0.01661268807947636</v>
+        <v>0.1065346151590347</v>
       </c>
       <c r="G100" t="n">
-        <v>68.90496063232422</v>
+        <v>68.62785339355469</v>
       </c>
       <c r="H100" t="n">
-        <v>0.538191556930542</v>
+        <v>0.6017038822174072</v>
       </c>
       <c r="I100" t="n">
-        <v>-7.033328533172607</v>
+        <v>-5.441305637359619</v>
       </c>
       <c r="J100" t="n">
-        <v>68.86000061035156</v>
+        <v>68.51000213623047</v>
       </c>
       <c r="K100" t="n">
-        <v>0.5799999833106995</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="L100" t="n">
-        <v>-6.920000076293945</v>
+        <v>-5.659999847412109</v>
       </c>
     </row>
     <row r="101">
@@ -4257,37 +4257,37 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C101" t="n">
-        <v>2500</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E101" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>0.09939077496528625</v>
+        <v>0.127889022231102</v>
       </c>
       <c r="G101" t="n">
-        <v>64.98844146728516</v>
+        <v>70.36869049072266</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6532095670700073</v>
+        <v>0.9738566875457764</v>
       </c>
       <c r="I101" t="n">
-        <v>-5.650526523590088</v>
+        <v>-6.496364593505859</v>
       </c>
       <c r="J101" t="n">
-        <v>64.68000030517578</v>
+        <v>70.62000274658203</v>
       </c>
       <c r="K101" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="L101" t="n">
-        <v>-5.710000038146973</v>
+        <v>-6.28000020980835</v>
       </c>
     </row>
     <row r="102">
@@ -4295,37 +4295,37 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C102" t="n">
-        <v>3500</v>
+        <v>45</v>
       </c>
       <c r="D102" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01999999955296516</v>
+        <v>4</v>
       </c>
       <c r="F102" t="n">
-        <v>0.05962514132261276</v>
+        <v>0.5332768559455872</v>
       </c>
       <c r="G102" t="n">
-        <v>71.46337127685547</v>
+        <v>69.20306396484375</v>
       </c>
       <c r="H102" t="n">
-        <v>0.5655089020729065</v>
+        <v>0.9053559899330139</v>
       </c>
       <c r="I102" t="n">
-        <v>-4.85466194152832</v>
+        <v>-6.446491241455078</v>
       </c>
       <c r="J102" t="n">
-        <v>71.26999664306641</v>
+        <v>68.51000213623047</v>
       </c>
       <c r="K102" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="L102" t="n">
-        <v>-4.96999979019165</v>
+        <v>-6.670000076293945</v>
       </c>
     </row>
     <row r="103">
@@ -4333,37 +4333,37 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C103" t="n">
-        <v>4000</v>
+        <v>25</v>
       </c>
       <c r="D103" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E103" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>0.03454279527068138</v>
+        <v>0.05231388658285141</v>
       </c>
       <c r="G103" t="n">
-        <v>68.81348419189453</v>
+        <v>70.3818359375</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7563575506210327</v>
+        <v>0.6615865230560303</v>
       </c>
       <c r="I103" t="n">
-        <v>-6.460361003875732</v>
+        <v>-4.23636531829834</v>
       </c>
       <c r="J103" t="n">
-        <v>68.87000274658203</v>
+        <v>70.22000122070312</v>
       </c>
       <c r="K103" t="n">
-        <v>0.6100000143051147</v>
+        <v>0.5</v>
       </c>
       <c r="L103" t="n">
-        <v>-6.559999942779541</v>
+        <v>-4.239999771118164</v>
       </c>
     </row>
     <row r="104">
@@ -4371,37 +4371,37 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C104" t="n">
-        <v>4500</v>
+        <v>45</v>
       </c>
       <c r="D104" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1331899166107178</v>
+        <v>0.07503079622983932</v>
       </c>
       <c r="G104" t="n">
-        <v>70.37920379638672</v>
+        <v>69.44593811035156</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6631451845169067</v>
+        <v>0.288066029548645</v>
       </c>
       <c r="I104" t="n">
-        <v>-6.546853542327881</v>
+        <v>-3.039452075958252</v>
       </c>
       <c r="J104" t="n">
-        <v>70.01999664306641</v>
+        <v>69.62000274658203</v>
       </c>
       <c r="K104" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="L104" t="n">
-        <v>-6.559999942779541</v>
+        <v>-2.859999895095825</v>
       </c>
     </row>
     <row r="105">
@@ -4409,37 +4409,37 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C105" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="D105" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E105" t="n">
-        <v>0.009999999776482582</v>
+        <v>2</v>
       </c>
       <c r="F105" t="n">
-        <v>1.713144659996033</v>
+        <v>0.02843316644430161</v>
       </c>
       <c r="G105" t="n">
-        <v>62.91694641113281</v>
+        <v>76.69020080566406</v>
       </c>
       <c r="H105" t="n">
-        <v>0.6484313011169434</v>
+        <v>0.8864749670028687</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.504693984985352</v>
+        <v>-3.78387451171875</v>
       </c>
       <c r="J105" t="n">
-        <v>61.61000061035156</v>
+        <v>76.68000030517578</v>
       </c>
       <c r="K105" t="n">
-        <v>0.7099999785423279</v>
+        <v>0.9700000286102295</v>
       </c>
       <c r="L105" t="n">
-        <v>-3.539999961853027</v>
+        <v>-3.930000066757202</v>
       </c>
     </row>
     <row r="106">
@@ -4447,37 +4447,37 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C106" t="n">
-        <v>2500</v>
+        <v>60</v>
       </c>
       <c r="D106" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E106" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
-        <v>0.3295724391937256</v>
+        <v>0.2318260222673416</v>
       </c>
       <c r="G106" t="n">
-        <v>73.64649200439453</v>
+        <v>74.51415252685547</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3774595260620117</v>
+        <v>0.2248018383979797</v>
       </c>
       <c r="I106" t="n">
-        <v>-6.341697216033936</v>
+        <v>-6.336382865905762</v>
       </c>
       <c r="J106" t="n">
-        <v>73.08000183105469</v>
+        <v>74.05000305175781</v>
       </c>
       <c r="K106" t="n">
-        <v>0.449999988079071</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="L106" t="n">
-        <v>-6.400000095367432</v>
+        <v>-6.440000057220459</v>
       </c>
     </row>
     <row r="107">
@@ -4485,37 +4485,37 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C107" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="D107" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E107" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
-        <v>0.07660241425037384</v>
+        <v>0.1498509049415588</v>
       </c>
       <c r="G107" t="n">
-        <v>75.97542572021484</v>
+        <v>75.73995208740234</v>
       </c>
       <c r="H107" t="n">
-        <v>0.8887479305267334</v>
+        <v>0.7199872136116028</v>
       </c>
       <c r="I107" t="n">
-        <v>-6.067469120025635</v>
+        <v>-3.910253047943115</v>
       </c>
       <c r="J107" t="n">
-        <v>75.86000061035156</v>
+        <v>75.98999786376953</v>
       </c>
       <c r="K107" t="n">
-        <v>0.6399999856948853</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="L107" t="n">
-        <v>-6.03000020980835</v>
+        <v>-3.650000095367432</v>
       </c>
     </row>
     <row r="108">
@@ -4523,37 +4523,37 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C108" t="n">
-        <v>5000</v>
+        <v>60</v>
       </c>
       <c r="D108" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>0.009999999776482582</v>
+        <v>4</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09841543436050415</v>
+        <v>0.9319791197776794</v>
       </c>
       <c r="G108" t="n">
-        <v>74.57546997070312</v>
+        <v>77.31345367431641</v>
       </c>
       <c r="H108" t="n">
-        <v>0.4924201965332031</v>
+        <v>0.1167415380477905</v>
       </c>
       <c r="I108" t="n">
-        <v>-4.83505392074585</v>
+        <v>-4.985969066619873</v>
       </c>
       <c r="J108" t="n">
-        <v>74.27999877929688</v>
+        <v>78.26999664306641</v>
       </c>
       <c r="K108" t="n">
-        <v>0.3899999856948853</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="L108" t="n">
-        <v>-4.860000133514404</v>
+        <v>-5.099999904632568</v>
       </c>
     </row>
     <row r="109">
@@ -4561,37 +4561,37 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C109" t="n">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="D109" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E109" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09504710137844086</v>
+        <v>4.525984764099121</v>
       </c>
       <c r="G109" t="n">
-        <v>68.97665405273438</v>
+        <v>69.26339721679688</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4567849934101105</v>
+        <v>0.4607620239257812</v>
       </c>
       <c r="I109" t="n">
-        <v>-4.139105319976807</v>
+        <v>-4.651350498199463</v>
       </c>
       <c r="J109" t="n">
-        <v>68.97000122070312</v>
+        <v>71.37000274658203</v>
       </c>
       <c r="K109" t="n">
         <v>0.239999994635582</v>
       </c>
       <c r="L109" t="n">
-        <v>-3.920000076293945</v>
+        <v>-4.849999904632568</v>
       </c>
     </row>
     <row r="110">
@@ -4599,37 +4599,37 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C110" t="n">
-        <v>1500</v>
+        <v>20</v>
       </c>
       <c r="D110" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E110" t="n">
-        <v>0.009999999776482582</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3386372327804565</v>
+        <v>0.05376189574599266</v>
       </c>
       <c r="G110" t="n">
-        <v>66.84982299804688</v>
+        <v>69.44894409179688</v>
       </c>
       <c r="H110" t="n">
-        <v>0.4895368814468384</v>
+        <v>0.7062544822692871</v>
       </c>
       <c r="I110" t="n">
-        <v>-3.008759498596191</v>
+        <v>-4.908792495727539</v>
       </c>
       <c r="J110" t="n">
-        <v>66.27999877929688</v>
+        <v>69.55999755859375</v>
       </c>
       <c r="K110" t="n">
-        <v>0.449999988079071</v>
+        <v>0.8199999928474426</v>
       </c>
       <c r="L110" t="n">
-        <v>-3.119999885559082</v>
+        <v>-4.739999771118164</v>
       </c>
     </row>
     <row r="111">
@@ -4637,37 +4637,37 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C111" t="n">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="D111" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F111" t="n">
-        <v>0.06506294012069702</v>
+        <v>0.07341083139181137</v>
       </c>
       <c r="G111" t="n">
-        <v>72.97626495361328</v>
+        <v>69.1500244140625</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7574964761734009</v>
+        <v>0.3676826953887939</v>
       </c>
       <c r="I111" t="n">
-        <v>-5.699796676635742</v>
+        <v>-4.203761100769043</v>
       </c>
       <c r="J111" t="n">
-        <v>73.20999908447266</v>
+        <v>68.90000152587891</v>
       </c>
       <c r="K111" t="n">
-        <v>0.8399999737739563</v>
+        <v>0.4300000071525574</v>
       </c>
       <c r="L111" t="n">
-        <v>-5.760000228881836</v>
+        <v>-4.119999885559082</v>
       </c>
     </row>
     <row r="112">
@@ -4675,37 +4675,37 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C112" t="n">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="D112" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E112" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>0.07531383633613586</v>
+        <v>0.05007177591323853</v>
       </c>
       <c r="G112" t="n">
-        <v>68.76399993896484</v>
+        <v>74.69049072265625</v>
       </c>
       <c r="H112" t="n">
-        <v>0.6965023279190063</v>
+        <v>0.7373545169830322</v>
       </c>
       <c r="I112" t="n">
-        <v>-6.044100284576416</v>
+        <v>-5.259079933166504</v>
       </c>
       <c r="J112" t="n">
-        <v>68.66000366210938</v>
+        <v>74.66999816894531</v>
       </c>
       <c r="K112" t="n">
-        <v>0.7599999904632568</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="L112" t="n">
-        <v>-6.289999961853027</v>
+        <v>-5.210000038146973</v>
       </c>
     </row>
     <row r="113">
@@ -4713,37 +4713,37 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C113" t="n">
-        <v>3500</v>
+        <v>20</v>
       </c>
       <c r="D113" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E113" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0209373515099287</v>
+        <v>0.07974874228239059</v>
       </c>
       <c r="G113" t="n">
-        <v>72.05351257324219</v>
+        <v>73.95890808105469</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5797097086906433</v>
+        <v>0.7132970690727234</v>
       </c>
       <c r="I113" t="n">
-        <v>-4.833271503448486</v>
+        <v>-5.048535346984863</v>
       </c>
       <c r="J113" t="n">
-        <v>71.94999694824219</v>
+        <v>73.93000030517578</v>
       </c>
       <c r="K113" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="L113" t="n">
-        <v>-4.849999904632568</v>
+        <v>-5.170000076293945</v>
       </c>
     </row>
     <row r="114">
@@ -4751,37 +4751,37 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C114" t="n">
-        <v>5000</v>
+        <v>25</v>
       </c>
       <c r="D114" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E114" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>0.02630438841879368</v>
+        <v>0.9030477404594421</v>
       </c>
       <c r="G114" t="n">
-        <v>73.01691436767578</v>
+        <v>71.28970336914062</v>
       </c>
       <c r="H114" t="n">
-        <v>0.5365704298019409</v>
+        <v>0.7340149879455566</v>
       </c>
       <c r="I114" t="n">
-        <v>-4.225502490997314</v>
+        <v>-5.744170665740967</v>
       </c>
       <c r="J114" t="n">
-        <v>73.12999725341797</v>
+        <v>70.34999847412109</v>
       </c>
       <c r="K114" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="L114" t="n">
-        <v>-4.199999809265137</v>
+        <v>-5.840000152587891</v>
       </c>
     </row>
     <row r="115">
@@ -4789,37 +4789,37 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C115" t="n">
-        <v>4500</v>
+        <v>45</v>
       </c>
       <c r="D115" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>0.009999999776482582</v>
+        <v>4</v>
       </c>
       <c r="F115" t="n">
-        <v>0.02871448919177055</v>
+        <v>8.351041793823242</v>
       </c>
       <c r="G115" t="n">
-        <v>71.54386138916016</v>
+        <v>71.06314086914062</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4302604496479034</v>
+        <v>0.4147704243659973</v>
       </c>
       <c r="I115" t="n">
-        <v>-4.378345012664795</v>
+        <v>-5.146703720092773</v>
       </c>
       <c r="J115" t="n">
-        <v>71.63999938964844</v>
+        <v>68.20999908447266</v>
       </c>
       <c r="K115" t="n">
-        <v>0.550000011920929</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="L115" t="n">
-        <v>-4.449999809265137</v>
+        <v>-4.690000057220459</v>
       </c>
     </row>
     <row r="116">
@@ -4827,37 +4827,37 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C116" t="n">
-        <v>2000</v>
+        <v>45</v>
       </c>
       <c r="D116" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E116" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3466575443744659</v>
+        <v>0.05189565569162369</v>
       </c>
       <c r="G116" t="n">
-        <v>64.41548919677734</v>
+        <v>73.60350036621094</v>
       </c>
       <c r="H116" t="n">
-        <v>0.7333418130874634</v>
+        <v>1.082649946212769</v>
       </c>
       <c r="I116" t="n">
-        <v>-5.112483501434326</v>
+        <v>-6.133152008056641</v>
       </c>
       <c r="J116" t="n">
-        <v>63.88000106811523</v>
+        <v>73.44000244140625</v>
       </c>
       <c r="K116" t="n">
-        <v>0.699999988079071</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="L116" t="n">
-        <v>-4.869999885559082</v>
+        <v>-6.090000152587891</v>
       </c>
     </row>
     <row r="117">
@@ -4865,37 +4865,37 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C117" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="D117" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E117" t="n">
-        <v>0.009999999776482582</v>
+        <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>0.01775258779525757</v>
+        <v>0.1152253821492195</v>
       </c>
       <c r="G117" t="n">
-        <v>72.23329925537109</v>
+        <v>70.13899230957031</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3551720678806305</v>
+        <v>0.9535722136497498</v>
       </c>
       <c r="I117" t="n">
-        <v>-4.533539772033691</v>
+        <v>-5.688124179840088</v>
       </c>
       <c r="J117" t="n">
-        <v>72.12999725341797</v>
+        <v>69.80999755859375</v>
       </c>
       <c r="K117" t="n">
-        <v>0.300000011920929</v>
+        <v>0.8700000047683716</v>
       </c>
       <c r="L117" t="n">
-        <v>-4.46999979019165</v>
+        <v>-5.690000057220459</v>
       </c>
     </row>
     <row r="118">
@@ -4903,37 +4903,37 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C118" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="D118" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E118" t="n">
-        <v>0.009999999776482582</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>0.02769059687852859</v>
+        <v>0.04115110263228416</v>
       </c>
       <c r="G118" t="n">
-        <v>65.98780822753906</v>
+        <v>69.52462768554688</v>
       </c>
       <c r="H118" t="n">
-        <v>0.2952983975410461</v>
+        <v>0.2197909355163574</v>
       </c>
       <c r="I118" t="n">
-        <v>-3.528005599975586</v>
+        <v>-3.881265640258789</v>
       </c>
       <c r="J118" t="n">
-        <v>65.91999816894531</v>
+        <v>69.61000061035156</v>
       </c>
       <c r="K118" t="n">
-        <v>0.2199999988079071</v>
+        <v>0.05999999865889549</v>
       </c>
       <c r="L118" t="n">
-        <v>-3.660000085830688</v>
+        <v>-3.789999961853027</v>
       </c>
     </row>
     <row r="119">
@@ -4941,37 +4941,37 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C119" t="n">
-        <v>1500</v>
+        <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E119" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>0.05870987102389336</v>
+        <v>0.9873809218406677</v>
       </c>
       <c r="G119" t="n">
-        <v>64.09001922607422</v>
+        <v>71.82130432128906</v>
       </c>
       <c r="H119" t="n">
-        <v>0.680260181427002</v>
+        <v>0.9040946364402771</v>
       </c>
       <c r="I119" t="n">
-        <v>-6.664533138275146</v>
+        <v>-5.923898220062256</v>
       </c>
       <c r="J119" t="n">
-        <v>63.91999816894531</v>
+        <v>70.84999847412109</v>
       </c>
       <c r="K119" t="n">
-        <v>0.8399999737739563</v>
+        <v>0.8299999833106995</v>
       </c>
       <c r="L119" t="n">
-        <v>-6.730000019073486</v>
+        <v>-6.119999885559082</v>
       </c>
     </row>
     <row r="120">
@@ -4979,37 +4979,37 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C120" t="n">
-        <v>3500</v>
+        <v>40</v>
       </c>
       <c r="D120" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01999999955296516</v>
+        <v>4</v>
       </c>
       <c r="F120" t="n">
-        <v>0.07420650869607925</v>
+        <v>0.1102650985121727</v>
       </c>
       <c r="G120" t="n">
-        <v>69.90315246582031</v>
+        <v>70.60918426513672</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3394439816474915</v>
+        <v>0.4123780131340027</v>
       </c>
       <c r="I120" t="n">
-        <v>-5.438382148742676</v>
+        <v>-3.769418239593506</v>
       </c>
       <c r="J120" t="n">
-        <v>70.16000366210938</v>
+        <v>70.51000213623047</v>
       </c>
       <c r="K120" t="n">
-        <v>0.3600000143051147</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="L120" t="n">
-        <v>-5.349999904632568</v>
+        <v>-3.529999971389771</v>
       </c>
     </row>
     <row r="121">
@@ -5017,37 +5017,37 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C121" t="n">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="D121" t="n">
         <v>30</v>
       </c>
       <c r="E121" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1187136918306351</v>
+        <v>0.06389670073986053</v>
       </c>
       <c r="G121" t="n">
-        <v>71.46952819824219</v>
+        <v>73.97561645507812</v>
       </c>
       <c r="H121" t="n">
-        <v>0.7055000066757202</v>
+        <v>0.6699504256248474</v>
       </c>
       <c r="I121" t="n">
-        <v>-6.160449981689453</v>
+        <v>-4.184414386749268</v>
       </c>
       <c r="J121" t="n">
-        <v>71.41000366210938</v>
+        <v>73.73999786376953</v>
       </c>
       <c r="K121" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.75</v>
       </c>
       <c r="L121" t="n">
-        <v>-6.360000133514404</v>
+        <v>-4.139999866485596</v>
       </c>
     </row>
     <row r="122">
@@ -5055,37 +5055,37 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C122" t="n">
-        <v>3000</v>
+        <v>40</v>
       </c>
       <c r="D122" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4348907172679901</v>
+        <v>0.05024326220154762</v>
       </c>
       <c r="G122" t="n">
-        <v>68.28212738037109</v>
+        <v>69.85772705078125</v>
       </c>
       <c r="H122" t="n">
-        <v>0.5993652939796448</v>
+        <v>0.3928159475326538</v>
       </c>
       <c r="I122" t="n">
-        <v>-6.194536685943604</v>
+        <v>-3.920508861541748</v>
       </c>
       <c r="J122" t="n">
-        <v>67.66000366210938</v>
+        <v>69.98999786376953</v>
       </c>
       <c r="K122" t="n">
-        <v>0.7300000190734863</v>
+        <v>0.3799999952316284</v>
       </c>
       <c r="L122" t="n">
-        <v>-6.369999885559082</v>
+        <v>-3.740000009536743</v>
       </c>
     </row>
     <row r="123">
@@ -5093,37 +5093,37 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C123" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="D123" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E123" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F123" t="n">
-        <v>0.02790806256234646</v>
+        <v>1.743937373161316</v>
       </c>
       <c r="G123" t="n">
-        <v>67.84040832519531</v>
+        <v>71.70877838134766</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4998559355735779</v>
+        <v>0.1710188984870911</v>
       </c>
       <c r="I123" t="n">
-        <v>-4.038244724273682</v>
+        <v>-4.399002075195312</v>
       </c>
       <c r="J123" t="n">
-        <v>67.76999664306641</v>
+        <v>70.38999938964844</v>
       </c>
       <c r="K123" t="n">
-        <v>0.5899999737739563</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="L123" t="n">
-        <v>-4.159999847412109</v>
+        <v>-4.400000095367432</v>
       </c>
     </row>
     <row r="124">
@@ -5131,37 +5131,37 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C124" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="D124" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E124" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6385747194290161</v>
+        <v>0.04856554418802261</v>
       </c>
       <c r="G124" t="n">
-        <v>64.88581085205078</v>
+        <v>71.35348510742188</v>
       </c>
       <c r="H124" t="n">
-        <v>0.546552300453186</v>
+        <v>0.6732545495033264</v>
       </c>
       <c r="I124" t="n">
-        <v>-5.858198165893555</v>
+        <v>-4.435781002044678</v>
       </c>
       <c r="J124" t="n">
-        <v>64.20999908447266</v>
+        <v>71.55000305175781</v>
       </c>
       <c r="K124" t="n">
-        <v>0.6299999952316284</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="L124" t="n">
-        <v>-5.440000057220459</v>
+        <v>-4.460000038146973</v>
       </c>
     </row>
     <row r="125">
@@ -5169,37 +5169,37 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C125" t="n">
-        <v>3000</v>
+        <v>35</v>
       </c>
       <c r="D125" t="n">
         <v>30</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01999999955296516</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>0.01704001054167747</v>
+        <v>0.4870398640632629</v>
       </c>
       <c r="G125" t="n">
-        <v>70.09104156494141</v>
+        <v>69.27101135253906</v>
       </c>
       <c r="H125" t="n">
-        <v>0.7104281187057495</v>
+        <v>0.729458212852478</v>
       </c>
       <c r="I125" t="n">
-        <v>-5.462541580200195</v>
+        <v>-5.73406457901001</v>
       </c>
       <c r="J125" t="n">
-        <v>69.98000335693359</v>
+        <v>68.62999725341797</v>
       </c>
       <c r="K125" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.7300000190734863</v>
       </c>
       <c r="L125" t="n">
-        <v>-5.429999828338623</v>
+        <v>-6.010000228881836</v>
       </c>
     </row>
     <row r="126">
@@ -5207,37 +5207,37 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C126" t="n">
-        <v>3500</v>
+        <v>35</v>
       </c>
       <c r="D126" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E126" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6059364676475525</v>
+        <v>0.1250294744968414</v>
       </c>
       <c r="G126" t="n">
-        <v>72.66120147705078</v>
+        <v>70.08184051513672</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8650628328323364</v>
+        <v>0.602514386177063</v>
       </c>
       <c r="I126" t="n">
-        <v>-6.526885509490967</v>
+        <v>-4.551535606384277</v>
       </c>
       <c r="J126" t="n">
-        <v>71.88999938964844</v>
+        <v>70.41000366210938</v>
       </c>
       <c r="K126" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="L126" t="n">
-        <v>-6.539999961853027</v>
+        <v>-4.670000076293945</v>
       </c>
     </row>
     <row r="127">
@@ -5245,37 +5245,37 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C127" t="n">
-        <v>1000</v>
+        <v>45</v>
       </c>
       <c r="D127" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
-        <v>0.3548673391342163</v>
+        <v>0.08826298266649246</v>
       </c>
       <c r="G127" t="n">
-        <v>65.50244903564453</v>
+        <v>73.04777526855469</v>
       </c>
       <c r="H127" t="n">
-        <v>0.6859366893768311</v>
+        <v>-0.04371601343154907</v>
       </c>
       <c r="I127" t="n">
-        <v>-4.972855091094971</v>
+        <v>-3.611016273498535</v>
       </c>
       <c r="J127" t="n">
-        <v>66.08999633789062</v>
+        <v>72.76000213623047</v>
       </c>
       <c r="K127" t="n">
-        <v>0.6200000047683716</v>
+        <v>-0.07000000029802322</v>
       </c>
       <c r="L127" t="n">
-        <v>-4.900000095367432</v>
+        <v>-3.680000066757202</v>
       </c>
     </row>
     <row r="128">
@@ -5283,37 +5283,37 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C128" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="D128" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F128" t="n">
-        <v>0.2294533401727676</v>
+        <v>0.1302463710308075</v>
       </c>
       <c r="G128" t="n">
-        <v>64.36358642578125</v>
+        <v>77.30126953125</v>
       </c>
       <c r="H128" t="n">
-        <v>0.5523489713668823</v>
+        <v>0.7190274596214294</v>
       </c>
       <c r="I128" t="n">
-        <v>-5.826033115386963</v>
+        <v>-4.127260208129883</v>
       </c>
       <c r="J128" t="n">
-        <v>63.97999954223633</v>
+        <v>77.06999969482422</v>
       </c>
       <c r="K128" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="L128" t="n">
-        <v>-5.539999961853027</v>
+        <v>-4.320000171661377</v>
       </c>
     </row>
     <row r="129">
@@ -5321,37 +5321,37 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C129" t="n">
-        <v>2500</v>
+        <v>10</v>
       </c>
       <c r="D129" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E129" t="n">
-        <v>0.009999999776482582</v>
+        <v>2</v>
       </c>
       <c r="F129" t="n">
-        <v>0.05238739028573036</v>
+        <v>0.05480385571718216</v>
       </c>
       <c r="G129" t="n">
-        <v>70.29590606689453</v>
+        <v>72.44609069824219</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1963896155357361</v>
+        <v>0.7371930480003357</v>
       </c>
       <c r="I129" t="n">
-        <v>-4.127546310424805</v>
+        <v>-3.625564098358154</v>
       </c>
       <c r="J129" t="n">
-        <v>70.12999725341797</v>
+        <v>72.58000183105469</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1899999976158142</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="L129" t="n">
-        <v>-3.970000028610229</v>
+        <v>-3.720000028610229</v>
       </c>
     </row>
     <row r="130">
@@ -5359,37 +5359,37 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C130" t="n">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="D130" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E130" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F130" t="n">
-        <v>0.09059892594814301</v>
+        <v>0.01024870947003365</v>
       </c>
       <c r="G130" t="n">
-        <v>63.98423767089844</v>
+        <v>70.79624176025391</v>
       </c>
       <c r="H130" t="n">
-        <v>0.8027862310409546</v>
+        <v>0.2373005151748657</v>
       </c>
       <c r="I130" t="n">
-        <v>-3.405754566192627</v>
+        <v>-6.530728816986084</v>
       </c>
       <c r="J130" t="n">
-        <v>63.79999923706055</v>
+        <v>70.72000122070312</v>
       </c>
       <c r="K130" t="n">
-        <v>0.7699999809265137</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="L130" t="n">
-        <v>-3.170000076293945</v>
+        <v>-6.489999771118164</v>
       </c>
     </row>
     <row r="131">
@@ -5397,37 +5397,37 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C131" t="n">
-        <v>2500</v>
+        <v>20</v>
       </c>
       <c r="D131" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>0.03836720436811447</v>
+        <v>0.06902496516704559</v>
       </c>
       <c r="G131" t="n">
-        <v>69.51488494873047</v>
+        <v>74.39100646972656</v>
       </c>
       <c r="H131" t="n">
-        <v>0.5513885021209717</v>
+        <v>0.6988328695297241</v>
       </c>
       <c r="I131" t="n">
-        <v>-5.79636812210083</v>
+        <v>-4.087562084197998</v>
       </c>
       <c r="J131" t="n">
-        <v>69.31999969482422</v>
+        <v>74.15000152587891</v>
       </c>
       <c r="K131" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.7200000286102295</v>
       </c>
       <c r="L131" t="n">
-        <v>-5.789999961853027</v>
+        <v>-4.190000057220459</v>
       </c>
     </row>
     <row r="132">
@@ -5435,37 +5435,37 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C132" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="D132" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E132" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8177565336227417</v>
+        <v>6.937206268310547</v>
       </c>
       <c r="G132" t="n">
-        <v>67.16005706787109</v>
+        <v>74.99298858642578</v>
       </c>
       <c r="H132" t="n">
-        <v>0.419741690158844</v>
+        <v>0.1160023808479309</v>
       </c>
       <c r="I132" t="n">
-        <v>-5.227318286895752</v>
+        <v>-5.54502534866333</v>
       </c>
       <c r="J132" t="n">
-        <v>67.83000183105469</v>
+        <v>72.36000061035156</v>
       </c>
       <c r="K132" t="n">
-        <v>0.4099999964237213</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="L132" t="n">
-        <v>-4.619999885559082</v>
+        <v>-5.559999942779541</v>
       </c>
     </row>
     <row r="133">
@@ -5473,37 +5473,37 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C133" t="n">
-        <v>3500</v>
+        <v>60</v>
       </c>
       <c r="D133" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5626097917556763</v>
+        <v>0.6553213596343994</v>
       </c>
       <c r="G133" t="n">
-        <v>69.44228363037109</v>
+        <v>72.65602111816406</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0152607262134552</v>
+        <v>0.1578742265701294</v>
       </c>
       <c r="I133" t="n">
-        <v>-4.24576997756958</v>
+        <v>-3.499329566955566</v>
       </c>
       <c r="J133" t="n">
-        <v>70.06999969482422</v>
+        <v>73.05000305175781</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1299999952316284</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>-4.639999866485596</v>
+        <v>-2.809999942779541</v>
       </c>
     </row>
     <row r="134">
@@ -5511,37 +5511,37 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C134" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="D134" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>0.009999999776482582</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>1.007539391517639</v>
+        <v>1.401816606521606</v>
       </c>
       <c r="G134" t="n">
-        <v>77.16230773925781</v>
+        <v>72.60532379150391</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6239604353904724</v>
+        <v>0.2834142446517944</v>
       </c>
       <c r="I134" t="n">
-        <v>-5.188394069671631</v>
+        <v>-3.324231624603271</v>
       </c>
       <c r="J134" t="n">
-        <v>76.16000366210938</v>
+        <v>73.77999877929688</v>
       </c>
       <c r="K134" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="L134" t="n">
-        <v>-5.159999847412109</v>
+        <v>-3.470000028610229</v>
       </c>
     </row>
     <row r="135">
@@ -5549,37 +5549,37 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C135" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="D135" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F135" t="n">
-        <v>0.04578494280576706</v>
+        <v>0.5845743417739868</v>
       </c>
       <c r="G135" t="n">
-        <v>70.70606994628906</v>
+        <v>71.09747314453125</v>
       </c>
       <c r="H135" t="n">
-        <v>0.8130478858947754</v>
+        <v>0.3805614113807678</v>
       </c>
       <c r="I135" t="n">
-        <v>-6.174371242523193</v>
+        <v>-4.179319858551025</v>
       </c>
       <c r="J135" t="n">
-        <v>70.69000244140625</v>
+        <v>71.76000213623047</v>
       </c>
       <c r="K135" t="n">
-        <v>0.8700000047683716</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="L135" t="n">
-        <v>-6.380000114440918</v>
+        <v>-4.369999885559082</v>
       </c>
     </row>
     <row r="136">
@@ -5587,37 +5587,37 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C136" t="n">
-        <v>1500</v>
+        <v>20</v>
       </c>
       <c r="D136" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E136" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F136" t="n">
-        <v>0.02762183733284473</v>
+        <v>0.02975041419267654</v>
       </c>
       <c r="G136" t="n">
-        <v>64.97693634033203</v>
+        <v>73.04412078857422</v>
       </c>
       <c r="H136" t="n">
-        <v>0.53629469871521</v>
+        <v>0.8607186675071716</v>
       </c>
       <c r="I136" t="n">
-        <v>-5.187048435211182</v>
+        <v>-5.971890926361084</v>
       </c>
       <c r="J136" t="n">
-        <v>64.94999694824219</v>
+        <v>73.15000152587891</v>
       </c>
       <c r="K136" t="n">
-        <v>0.6399999856948853</v>
+        <v>0.7300000190734863</v>
       </c>
       <c r="L136" t="n">
-        <v>-5.059999942779541</v>
+        <v>-6.010000228881836</v>
       </c>
     </row>
     <row r="137">
@@ -5625,37 +5625,37 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C137" t="n">
-        <v>2500</v>
+        <v>20</v>
       </c>
       <c r="D137" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E137" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1192013770341873</v>
+        <v>0.06891697645187378</v>
       </c>
       <c r="G137" t="n">
-        <v>67.61190032958984</v>
+        <v>70.93650817871094</v>
       </c>
       <c r="H137" t="n">
-        <v>0.8500994443893433</v>
+        <v>0.7107213735580444</v>
       </c>
       <c r="I137" t="n">
-        <v>-7.093331813812256</v>
+        <v>-4.319966793060303</v>
       </c>
       <c r="J137" t="n">
-        <v>67.26999664306641</v>
+        <v>70.91000366210938</v>
       </c>
       <c r="K137" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="L137" t="n">
-        <v>-7.119999885559082</v>
+        <v>-4.139999866485596</v>
       </c>
     </row>
     <row r="138">
@@ -5663,37 +5663,37 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C138" t="n">
-        <v>4500</v>
+        <v>60</v>
       </c>
       <c r="D138" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1386666893959045</v>
+        <v>0.1615440845489502</v>
       </c>
       <c r="G138" t="n">
-        <v>73.34056854248047</v>
+        <v>73.42333984375</v>
       </c>
       <c r="H138" t="n">
-        <v>0.6911325454711914</v>
+        <v>0.02597206830978394</v>
       </c>
       <c r="I138" t="n">
-        <v>-4.839618682861328</v>
+        <v>-4.010520458221436</v>
       </c>
       <c r="J138" t="n">
-        <v>73.05000305175781</v>
+        <v>73.76000213623047</v>
       </c>
       <c r="K138" t="n">
-        <v>0.8600000143051147</v>
+        <v>-0.1899999976158142</v>
       </c>
       <c r="L138" t="n">
-        <v>-5</v>
+        <v>-4.050000190734863</v>
       </c>
     </row>
     <row r="139">
@@ -5701,37 +5701,37 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C139" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="D139" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E139" t="n">
-        <v>0.02999999932944775</v>
+        <v>4</v>
       </c>
       <c r="F139" t="n">
-        <v>0.08888766914606094</v>
+        <v>0.05800047516822815</v>
       </c>
       <c r="G139" t="n">
-        <v>65.21836853027344</v>
+        <v>78.38711547851562</v>
       </c>
       <c r="H139" t="n">
-        <v>0.7375438213348389</v>
+        <v>0.8249021172523499</v>
       </c>
       <c r="I139" t="n">
-        <v>-6.971123218536377</v>
+        <v>-5.003637313842773</v>
       </c>
       <c r="J139" t="n">
-        <v>64.94000244140625</v>
+        <v>78.23000335693359</v>
       </c>
       <c r="K139" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="L139" t="n">
-        <v>-6.909999847412109</v>
+        <v>-5.170000076293945</v>
       </c>
     </row>
     <row r="140">
@@ -5739,37 +5739,37 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C140" t="n">
-        <v>1500</v>
+        <v>20</v>
       </c>
       <c r="D140" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E140" t="n">
-        <v>0.01999999955296516</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
-        <v>0.01465395744889975</v>
+        <v>0.1433174610137939</v>
       </c>
       <c r="G140" t="n">
-        <v>66.24544525146484</v>
+        <v>73.98105621337891</v>
       </c>
       <c r="H140" t="n">
-        <v>0.610532283782959</v>
+        <v>0.7787882685661316</v>
       </c>
       <c r="I140" t="n">
-        <v>-4.638608455657959</v>
+        <v>-4.751728534698486</v>
       </c>
       <c r="J140" t="n">
-        <v>66.23999786376953</v>
+        <v>73.61000061035156</v>
       </c>
       <c r="K140" t="n">
-        <v>0.7200000286102295</v>
+        <v>0.8100000023841858</v>
       </c>
       <c r="L140" t="n">
-        <v>-4.690000057220459</v>
+        <v>-4.820000171661377</v>
       </c>
     </row>
     <row r="141">
@@ -5777,37 +5777,37 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C141" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="D141" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E141" t="n">
-        <v>0.02999999932944775</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1094483807682991</v>
+        <v>0.2713825404644012</v>
       </c>
       <c r="G141" t="n">
-        <v>74.89349365234375</v>
+        <v>77.47351837158203</v>
       </c>
       <c r="H141" t="n">
-        <v>0.832098126411438</v>
+        <v>0.7378023862838745</v>
       </c>
       <c r="I141" t="n">
-        <v>-6.239293098449707</v>
+        <v>-4.501420974731445</v>
       </c>
       <c r="J141" t="n">
-        <v>74.58999633789062</v>
+        <v>77.40000152587891</v>
       </c>
       <c r="K141" t="n">
-        <v>0.7099999785423279</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="L141" t="n">
-        <v>-6.190000057220459</v>
+        <v>-4.980000019073486</v>
       </c>
     </row>
     <row r="142">
@@ -5815,37 +5815,37 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C142" t="n">
-        <v>5000</v>
+        <v>45</v>
       </c>
       <c r="D142" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E142" t="n">
-        <v>0.009999999776482582</v>
+        <v>3</v>
       </c>
       <c r="F142" t="n">
-        <v>0.300365149974823</v>
+        <v>1.258866310119629</v>
       </c>
       <c r="G142" t="n">
-        <v>76.22449493408203</v>
+        <v>72.49952697753906</v>
       </c>
       <c r="H142" t="n">
-        <v>0.5846890211105347</v>
+        <v>-0.005644381046295166</v>
       </c>
       <c r="I142" t="n">
-        <v>-5.233335971832275</v>
+        <v>-3.741961002349854</v>
       </c>
       <c r="J142" t="n">
-        <v>75.69000244140625</v>
+        <v>73.62000274658203</v>
       </c>
       <c r="K142" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>-5.320000171661377</v>
+        <v>-3.799999952316284</v>
       </c>
     </row>
     <row r="143">
@@ -5853,1899 +5853,37 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C143" t="n">
-        <v>2000</v>
+        <v>35</v>
       </c>
       <c r="D143" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E143" t="n">
-        <v>0.02999999932944775</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4715516567230225</v>
+        <v>0.4163424968719482</v>
       </c>
       <c r="G143" t="n">
-        <v>63.73193359375</v>
+        <v>70.29833984375</v>
       </c>
       <c r="H143" t="n">
-        <v>0.6765308380126953</v>
+        <v>0.7803805470466614</v>
       </c>
       <c r="I143" t="n">
-        <v>-5.837477207183838</v>
+        <v>-5.978002071380615</v>
       </c>
       <c r="J143" t="n">
-        <v>63.06999969482422</v>
+        <v>70.88999938964844</v>
       </c>
       <c r="K143" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.9399999976158142</v>
       </c>
       <c r="L143" t="n">
-        <v>-5.78000020980835</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B144" t="n">
-        <v>50</v>
-      </c>
-      <c r="C144" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D144" t="n">
-        <v>32</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.4575229287147522</v>
-      </c>
-      <c r="G144" t="n">
-        <v>67.80390167236328</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.2397172898054123</v>
-      </c>
-      <c r="I144" t="n">
-        <v>-3.251853942871094</v>
-      </c>
-      <c r="J144" t="n">
-        <v>67.13999938964844</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.3400000035762787</v>
-      </c>
-      <c r="L144" t="n">
-        <v>-3.170000076293945</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B145" t="n">
-        <v>40</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D145" t="n">
-        <v>30</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.0694684311747551</v>
-      </c>
-      <c r="G145" t="n">
-        <v>64.98199462890625</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.5441155433654785</v>
-      </c>
-      <c r="I145" t="n">
-        <v>-6.401834964752197</v>
-      </c>
-      <c r="J145" t="n">
-        <v>64.72000122070312</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.550000011920929</v>
-      </c>
-      <c r="L145" t="n">
-        <v>-6.429999828338623</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B146" t="n">
-        <v>34</v>
-      </c>
-      <c r="C146" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D146" t="n">
-        <v>28</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.06214246526360512</v>
-      </c>
-      <c r="G146" t="n">
-        <v>73.04596710205078</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.5153932571411133</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-5.230010032653809</v>
-      </c>
-      <c r="J146" t="n">
-        <v>72.83000183105469</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.4199999868869781</v>
-      </c>
-      <c r="L146" t="n">
-        <v>-5.150000095367432</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B147" t="n">
-        <v>36</v>
-      </c>
-      <c r="C147" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D147" t="n">
-        <v>32</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.01477003376930952</v>
-      </c>
-      <c r="G147" t="n">
-        <v>73.63492584228516</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.4558880031108856</v>
-      </c>
-      <c r="I147" t="n">
-        <v>-4.482117176055908</v>
-      </c>
-      <c r="J147" t="n">
-        <v>73.55999755859375</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.4300000071525574</v>
-      </c>
-      <c r="L147" t="n">
-        <v>-4.389999866485596</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B148" t="n">
-        <v>42</v>
-      </c>
-      <c r="C148" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D148" t="n">
-        <v>30</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.2566550374031067</v>
-      </c>
-      <c r="G148" t="n">
-        <v>70.64456939697266</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0.757857084274292</v>
-      </c>
-      <c r="I148" t="n">
-        <v>-6.657341003417969</v>
-      </c>
-      <c r="J148" t="n">
-        <v>71.15000152587891</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.7900000214576721</v>
-      </c>
-      <c r="L148" t="n">
-        <v>-6.670000076293945</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B149" t="n">
-        <v>34</v>
-      </c>
-      <c r="C149" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D149" t="n">
-        <v>28</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.05331912636756897</v>
-      </c>
-      <c r="G149" t="n">
-        <v>76.49475860595703</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0.6129691600799561</v>
-      </c>
-      <c r="I149" t="n">
-        <v>-5.2806077003479</v>
-      </c>
-      <c r="J149" t="n">
-        <v>76.27999877929688</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.6600000262260437</v>
-      </c>
-      <c r="L149" t="n">
-        <v>-5.210000038146973</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B150" t="n">
-        <v>40</v>
-      </c>
-      <c r="C150" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D150" t="n">
-        <v>30</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.08883243054151535</v>
-      </c>
-      <c r="G150" t="n">
-        <v>72.31885528564453</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0.7873830795288086</v>
-      </c>
-      <c r="I150" t="n">
-        <v>-6.459313869476318</v>
-      </c>
-      <c r="J150" t="n">
-        <v>72.58999633789062</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="L150" t="n">
-        <v>-6.579999923706055</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B151" t="n">
-        <v>44</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D151" t="n">
-        <v>30</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.944517195224762</v>
-      </c>
-      <c r="G151" t="n">
-        <v>69.43479919433594</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0.2277041971683502</v>
-      </c>
-      <c r="I151" t="n">
-        <v>-3.182715654373169</v>
-      </c>
-      <c r="J151" t="n">
-        <v>68.51000213623047</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.3700000047683716</v>
-      </c>
-      <c r="L151" t="n">
-        <v>-2.920000076293945</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B152" t="n">
-        <v>48</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D152" t="n">
-        <v>32</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.7220838665962219</v>
-      </c>
-      <c r="G152" t="n">
-        <v>68.00064849853516</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0.3879726529121399</v>
-      </c>
-      <c r="I152" t="n">
-        <v>-4.830328941345215</v>
-      </c>
-      <c r="J152" t="n">
-        <v>68.83000183105469</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.2800000011920929</v>
-      </c>
-      <c r="L152" t="n">
-        <v>-4.679999828338623</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B153" t="n">
-        <v>46</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D153" t="n">
-        <v>34</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.4554727077484131</v>
-      </c>
-      <c r="G153" t="n">
-        <v>67.64688110351562</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0.6664609909057617</v>
-      </c>
-      <c r="I153" t="n">
-        <v>-4.573087692260742</v>
-      </c>
-      <c r="J153" t="n">
-        <v>68.31999969482422</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.6800000071525574</v>
-      </c>
-      <c r="L153" t="n">
-        <v>-4.619999885559082</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B154" t="n">
-        <v>38</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D154" t="n">
-        <v>32</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.01769993826746941</v>
-      </c>
-      <c r="G154" t="n">
-        <v>63.44724273681641</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0.7285398244857788</v>
-      </c>
-      <c r="I154" t="n">
-        <v>-5.485542774200439</v>
-      </c>
-      <c r="J154" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.7900000214576721</v>
-      </c>
-      <c r="L154" t="n">
-        <v>-5.380000114440918</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B155" t="n">
-        <v>50</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D155" t="n">
-        <v>34</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.1911089569330215</v>
-      </c>
-      <c r="G155" t="n">
-        <v>65.93273162841797</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0.6614657640457153</v>
-      </c>
-      <c r="I155" t="n">
-        <v>-4.598670959472656</v>
-      </c>
-      <c r="J155" t="n">
-        <v>65.52999877929688</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.7900000214576721</v>
-      </c>
-      <c r="L155" t="n">
-        <v>-4.710000038146973</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B156" t="n">
-        <v>36</v>
-      </c>
-      <c r="C156" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D156" t="n">
-        <v>30</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.09652616083621979</v>
-      </c>
-      <c r="G156" t="n">
-        <v>67.43438720703125</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0.3566718101501465</v>
-      </c>
-      <c r="I156" t="n">
-        <v>-3.910031318664551</v>
-      </c>
-      <c r="J156" t="n">
-        <v>67.72000122070312</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.4099999964237213</v>
-      </c>
-      <c r="L156" t="n">
-        <v>-3.799999952316284</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B157" t="n">
-        <v>50</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D157" t="n">
-        <v>32</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.06746789813041687</v>
-      </c>
-      <c r="G157" t="n">
-        <v>67.51250457763672</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0.4128692150115967</v>
-      </c>
-      <c r="I157" t="n">
-        <v>-3.93062949180603</v>
-      </c>
-      <c r="J157" t="n">
-        <v>67.58999633789062</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.6399999856948853</v>
-      </c>
-      <c r="L157" t="n">
-        <v>-4.03000020980835</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B158" t="n">
-        <v>44</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D158" t="n">
-        <v>28</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.2240292876958847</v>
-      </c>
-      <c r="G158" t="n">
-        <v>68.10379791259766</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0.5160400867462158</v>
-      </c>
-      <c r="I158" t="n">
-        <v>-4.822391033172607</v>
-      </c>
-      <c r="J158" t="n">
-        <v>68.55000305175781</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.4300000071525574</v>
-      </c>
-      <c r="L158" t="n">
-        <v>-4.690000057220459</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B159" t="n">
-        <v>40</v>
-      </c>
-      <c r="C159" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D159" t="n">
-        <v>30</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.7653766274452209</v>
-      </c>
-      <c r="G159" t="n">
-        <v>66.20121765136719</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0.610451340675354</v>
-      </c>
-      <c r="I159" t="n">
-        <v>-5.255625247955322</v>
-      </c>
-      <c r="J159" t="n">
-        <v>65.33000183105469</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.6899999976158142</v>
-      </c>
-      <c r="L159" t="n">
-        <v>-5.25</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B160" t="n">
-        <v>44</v>
-      </c>
-      <c r="C160" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D160" t="n">
-        <v>30</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.0975026935338974</v>
-      </c>
-      <c r="G160" t="n">
-        <v>69.07347106933594</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0.7005319595336914</v>
-      </c>
-      <c r="I160" t="n">
-        <v>-6.149570941925049</v>
-      </c>
-      <c r="J160" t="n">
-        <v>68.79000091552734</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.5699999928474426</v>
-      </c>
-      <c r="L160" t="n">
-        <v>-6.159999847412109</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B161" t="n">
-        <v>36</v>
-      </c>
-      <c r="C161" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D161" t="n">
-        <v>34</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.02974729984998703</v>
-      </c>
-      <c r="G161" t="n">
-        <v>74.56882476806641</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0.7236618995666504</v>
-      </c>
-      <c r="I161" t="n">
-        <v>-4.863044738769531</v>
-      </c>
-      <c r="J161" t="n">
-        <v>74.41000366210938</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.7300000190734863</v>
-      </c>
-      <c r="L161" t="n">
-        <v>-4.929999828338623</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B162" t="n">
-        <v>44</v>
-      </c>
-      <c r="C162" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D162" t="n">
-        <v>32</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.03066720068454742</v>
-      </c>
-      <c r="G162" t="n">
-        <v>68.57231903076172</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0.1930475831031799</v>
-      </c>
-      <c r="I162" t="n">
-        <v>-4.211357593536377</v>
-      </c>
-      <c r="J162" t="n">
-        <v>68.66999816894531</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07999999821186066</v>
-      </c>
-      <c r="L162" t="n">
-        <v>-4.119999885559082</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B163" t="n">
-        <v>48</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D163" t="n">
-        <v>28</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.04495654255151749</v>
-      </c>
-      <c r="G163" t="n">
-        <v>71.22193145751953</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0.4104351699352264</v>
-      </c>
-      <c r="I163" t="n">
-        <v>-3.868607044219971</v>
-      </c>
-      <c r="J163" t="n">
-        <v>71.13999938964844</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.300000011920929</v>
-      </c>
-      <c r="L163" t="n">
-        <v>-4.03000020980835</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B164" t="n">
-        <v>42</v>
-      </c>
-      <c r="C164" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D164" t="n">
-        <v>28</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.07785341888666153</v>
-      </c>
-      <c r="G164" t="n">
-        <v>76.95769500732422</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0.9427003860473633</v>
-      </c>
-      <c r="I164" t="n">
-        <v>-6.3188157081604</v>
-      </c>
-      <c r="J164" t="n">
-        <v>76.91000366210938</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.8500000238418579</v>
-      </c>
-      <c r="L164" t="n">
-        <v>-6.059999942779541</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B165" t="n">
-        <v>40</v>
-      </c>
-      <c r="C165" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D165" t="n">
-        <v>32</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.1828587651252747</v>
-      </c>
-      <c r="G165" t="n">
-        <v>67.34127807617188</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0.4921580851078033</v>
-      </c>
-      <c r="I165" t="n">
-        <v>-4.733898639678955</v>
-      </c>
-      <c r="J165" t="n">
-        <v>66.94000244140625</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.4699999988079071</v>
-      </c>
-      <c r="L165" t="n">
-        <v>-4.880000114440918</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B166" t="n">
-        <v>48</v>
-      </c>
-      <c r="C166" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D166" t="n">
-        <v>30</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.008569875732064247</v>
-      </c>
-      <c r="G166" t="n">
-        <v>75.01735687255859</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0.4035570323467255</v>
-      </c>
-      <c r="I166" t="n">
-        <v>-5.27242374420166</v>
-      </c>
-      <c r="J166" t="n">
-        <v>75.08000183105469</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.3600000143051147</v>
-      </c>
-      <c r="L166" t="n">
-        <v>-5.21999979019165</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B167" t="n">
-        <v>42</v>
-      </c>
-      <c r="C167" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D167" t="n">
-        <v>32</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.07578960806131363</v>
-      </c>
-      <c r="G167" t="n">
-        <v>71.95827484130859</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0.648227334022522</v>
-      </c>
-      <c r="I167" t="n">
-        <v>-6.621131420135498</v>
-      </c>
-      <c r="J167" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="L167" t="n">
-        <v>-6.480000019073486</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B168" t="n">
-        <v>42</v>
-      </c>
-      <c r="C168" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D168" t="n">
-        <v>30</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.6779183745384216</v>
-      </c>
-      <c r="G168" t="n">
-        <v>72.52562713623047</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0.7269580364227295</v>
-      </c>
-      <c r="I168" t="n">
-        <v>-6.150723457336426</v>
-      </c>
-      <c r="J168" t="n">
-        <v>71.70999908447266</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.7799999713897705</v>
-      </c>
-      <c r="L168" t="n">
-        <v>-6.25</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B169" t="n">
-        <v>36</v>
-      </c>
-      <c r="C169" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D169" t="n">
-        <v>34</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.7431807518005371</v>
-      </c>
-      <c r="G169" t="n">
-        <v>72.56637573242188</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0.8029048442840576</v>
-      </c>
-      <c r="I169" t="n">
-        <v>-5.733114719390869</v>
-      </c>
-      <c r="J169" t="n">
-        <v>71.72000122070312</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.8500000238418579</v>
-      </c>
-      <c r="L169" t="n">
-        <v>-5.889999866485596</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B170" t="n">
-        <v>38</v>
-      </c>
-      <c r="C170" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D170" t="n">
-        <v>28</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.1902061998844147</v>
-      </c>
-      <c r="G170" t="n">
-        <v>75.25708770751953</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0.5384397506713867</v>
-      </c>
-      <c r="I170" t="n">
-        <v>-5.112890243530273</v>
-      </c>
-      <c r="J170" t="n">
-        <v>74.87000274658203</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.6499999761581421</v>
-      </c>
-      <c r="L170" t="n">
-        <v>-5.28000020980835</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B171" t="n">
-        <v>38</v>
-      </c>
-      <c r="C171" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D171" t="n">
-        <v>28</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.002178317168727517</v>
-      </c>
-      <c r="G171" t="n">
-        <v>73.29315948486328</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0.8807344436645508</v>
-      </c>
-      <c r="I171" t="n">
-        <v>-6.454968929290771</v>
-      </c>
-      <c r="J171" t="n">
-        <v>73.29000091552734</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.9200000166893005</v>
-      </c>
-      <c r="L171" t="n">
-        <v>-6.480000019073486</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B172" t="n">
-        <v>50</v>
-      </c>
-      <c r="C172" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D172" t="n">
-        <v>30</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2.303590297698975</v>
-      </c>
-      <c r="G172" t="n">
-        <v>74.30414581298828</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0.228705495595932</v>
-      </c>
-      <c r="I172" t="n">
-        <v>-5.051686763763428</v>
-      </c>
-      <c r="J172" t="n">
-        <v>72.80999755859375</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.2800000011920929</v>
-      </c>
-      <c r="L172" t="n">
-        <v>-4.789999961853027</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B173" t="n">
-        <v>48</v>
-      </c>
-      <c r="C173" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D173" t="n">
-        <v>28</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.00396845443174243</v>
-      </c>
-      <c r="G173" t="n">
-        <v>72.34925079345703</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0.3575341403484344</v>
-      </c>
-      <c r="I173" t="n">
-        <v>-5.942115306854248</v>
-      </c>
-      <c r="J173" t="n">
-        <v>72.30000305175781</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.3899999856948853</v>
-      </c>
-      <c r="L173" t="n">
-        <v>-5.920000076293945</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B174" t="n">
-        <v>44</v>
-      </c>
-      <c r="C174" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D174" t="n">
-        <v>34</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.09466474503278732</v>
-      </c>
-      <c r="G174" t="n">
-        <v>63.36643218994141</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0.7648513317108154</v>
-      </c>
-      <c r="I174" t="n">
-        <v>-5.326070308685303</v>
-      </c>
-      <c r="J174" t="n">
-        <v>63.45000076293945</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="L174" t="n">
-        <v>-5.03000020980835</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B175" t="n">
-        <v>48</v>
-      </c>
-      <c r="C175" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D175" t="n">
-        <v>30</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.7686532139778137</v>
-      </c>
-      <c r="G175" t="n">
-        <v>68.20477294921875</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0.7163485288619995</v>
-      </c>
-      <c r="I175" t="n">
-        <v>-6.955350875854492</v>
-      </c>
-      <c r="J175" t="n">
-        <v>69.06999969482422</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="L175" t="n">
-        <v>-7.090000152587891</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B176" t="n">
-        <v>36</v>
-      </c>
-      <c r="C176" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D176" t="n">
-        <v>34</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.06742268055677414</v>
-      </c>
-      <c r="G176" t="n">
-        <v>64.2236328125</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0.7440781593322754</v>
-      </c>
-      <c r="I176" t="n">
-        <v>-3.365087270736694</v>
-      </c>
-      <c r="J176" t="n">
-        <v>64.38999938964844</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.6700000166893005</v>
-      </c>
-      <c r="L176" t="n">
-        <v>-3.180000066757202</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B177" t="n">
-        <v>40</v>
-      </c>
-      <c r="C177" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D177" t="n">
-        <v>32</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.02477031946182251</v>
-      </c>
-      <c r="G177" t="n">
-        <v>66.57349395751953</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0.2453236877918243</v>
-      </c>
-      <c r="I177" t="n">
-        <v>-3.986414670944214</v>
-      </c>
-      <c r="J177" t="n">
-        <v>66.58999633789062</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.1899999976158142</v>
-      </c>
-      <c r="L177" t="n">
-        <v>-3.839999914169312</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B178" t="n">
-        <v>50</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D178" t="n">
-        <v>34</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.5546208024024963</v>
-      </c>
-      <c r="G178" t="n">
-        <v>66.99938201904297</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0.4296110570430756</v>
-      </c>
-      <c r="I178" t="n">
-        <v>-3.100979328155518</v>
-      </c>
-      <c r="J178" t="n">
-        <v>66.26999664306641</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.5799999833106995</v>
-      </c>
-      <c r="L178" t="n">
-        <v>-3.099999904632568</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B179" t="n">
-        <v>40</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D179" t="n">
-        <v>32</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.1873753070831299</v>
-      </c>
-      <c r="G179" t="n">
-        <v>70.97463226318359</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0.7271125316619873</v>
-      </c>
-      <c r="I179" t="n">
-        <v>-6.447499752044678</v>
-      </c>
-      <c r="J179" t="n">
-        <v>70.55999755859375</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.7799999713897705</v>
-      </c>
-      <c r="L179" t="n">
-        <v>-6.559999942779541</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B180" t="n">
-        <v>50</v>
-      </c>
-      <c r="C180" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D180" t="n">
-        <v>34</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.0166647732257843</v>
-      </c>
-      <c r="G180" t="n">
-        <v>66.35056304931641</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0.6517853736877441</v>
-      </c>
-      <c r="I180" t="n">
-        <v>-5.92727518081665</v>
-      </c>
-      <c r="J180" t="n">
-        <v>66.44000244140625</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.6600000262260437</v>
-      </c>
-      <c r="L180" t="n">
-        <v>-6.019999980926514</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B181" t="n">
-        <v>42</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D181" t="n">
-        <v>28</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.4190511405467987</v>
-      </c>
-      <c r="G181" t="n">
-        <v>74.98665618896484</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0.9366835355758667</v>
-      </c>
-      <c r="I181" t="n">
-        <v>-6.451468944549561</v>
-      </c>
-      <c r="J181" t="n">
-        <v>74.34999847412109</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.8600000143051147</v>
-      </c>
-      <c r="L181" t="n">
-        <v>-6.539999961853027</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B182" t="n">
-        <v>44</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D182" t="n">
-        <v>28</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.067283034324646</v>
-      </c>
-      <c r="G182" t="n">
-        <v>77.5087890625</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0.7696372270584106</v>
-      </c>
-      <c r="I182" t="n">
-        <v>-6.103662490844727</v>
-      </c>
-      <c r="J182" t="n">
-        <v>77.72000122070312</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.6299999952316284</v>
-      </c>
-      <c r="L182" t="n">
-        <v>-6.159999847412109</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B183" t="n">
-        <v>36</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D183" t="n">
-        <v>32</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.0533679723739624</v>
-      </c>
-      <c r="G183" t="n">
-        <v>75.31888580322266</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.5755367279052734</v>
-      </c>
-      <c r="I183" t="n">
-        <v>-5.259900569915771</v>
-      </c>
-      <c r="J183" t="n">
-        <v>75.09999847412109</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.6299999952316284</v>
-      </c>
-      <c r="L183" t="n">
-        <v>-5.210000038146973</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B184" t="n">
-        <v>36</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D184" t="n">
-        <v>28</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.2355401813983917</v>
-      </c>
-      <c r="G184" t="n">
-        <v>64.46924591064453</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0.6976685523986816</v>
-      </c>
-      <c r="I184" t="n">
-        <v>-6.779157161712646</v>
-      </c>
-      <c r="J184" t="n">
-        <v>64.06999969482422</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.5299999713897705</v>
-      </c>
-      <c r="L184" t="n">
-        <v>-6.559999942779541</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B185" t="n">
-        <v>50</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D185" t="n">
-        <v>28</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.4122878015041351</v>
-      </c>
-      <c r="G185" t="n">
-        <v>75.50986480712891</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0.7953144311904907</v>
-      </c>
-      <c r="I185" t="n">
-        <v>-6.632855415344238</v>
-      </c>
-      <c r="J185" t="n">
-        <v>74.87999725341797</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.9200000166893005</v>
-      </c>
-      <c r="L185" t="n">
-        <v>-6.630000114440918</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B186" t="n">
-        <v>38</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D186" t="n">
-        <v>34</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.03421366959810257</v>
-      </c>
-      <c r="G186" t="n">
-        <v>65.60300445556641</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0.6931557655334473</v>
-      </c>
-      <c r="I186" t="n">
-        <v>-5.810520172119141</v>
-      </c>
-      <c r="J186" t="n">
-        <v>65.69000244140625</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.6299999952316284</v>
-      </c>
-      <c r="L186" t="n">
-        <v>-5.659999847412109</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B187" t="n">
-        <v>36</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D187" t="n">
-        <v>34</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.4081080853939056</v>
-      </c>
-      <c r="G187" t="n">
-        <v>67.40639495849609</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0.7482948303222656</v>
-      </c>
-      <c r="I187" t="n">
-        <v>-4.576321601867676</v>
-      </c>
-      <c r="J187" t="n">
-        <v>66.84999847412109</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.7599999904632568</v>
-      </c>
-      <c r="L187" t="n">
-        <v>-4.889999866485596</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B188" t="n">
-        <v>50</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D188" t="n">
-        <v>30</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.1267647743225098</v>
-      </c>
-      <c r="G188" t="n">
-        <v>71.63788604736328</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0.1888850331306458</v>
-      </c>
-      <c r="I188" t="n">
-        <v>-2.959179401397705</v>
-      </c>
-      <c r="J188" t="n">
-        <v>71.76000213623047</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-0.1299999952316284</v>
-      </c>
-      <c r="L188" t="n">
-        <v>-3.059999942779541</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B189" t="n">
-        <v>38</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D189" t="n">
-        <v>34</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.02999999932944775</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.6862431764602661</v>
-      </c>
-      <c r="G189" t="n">
-        <v>71.81209564208984</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0.8218026161193848</v>
-      </c>
-      <c r="I189" t="n">
-        <v>-5.804361820220947</v>
-      </c>
-      <c r="J189" t="n">
-        <v>71.01000213623047</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.7300000190734863</v>
-      </c>
-      <c r="L189" t="n">
-        <v>-5.989999771118164</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B190" t="n">
-        <v>42</v>
-      </c>
-      <c r="C190" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D190" t="n">
-        <v>28</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.07755501568317413</v>
-      </c>
-      <c r="G190" t="n">
-        <v>74.53415679931641</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0.5397258996963501</v>
-      </c>
-      <c r="I190" t="n">
-        <v>-5.341171741485596</v>
-      </c>
-      <c r="J190" t="n">
-        <v>74.41999816894531</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.6499999761581421</v>
-      </c>
-      <c r="L190" t="n">
-        <v>-5.570000171661377</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B191" t="n">
-        <v>44</v>
-      </c>
-      <c r="C191" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D191" t="n">
-        <v>30</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.02191641554236412</v>
-      </c>
-      <c r="G191" t="n">
-        <v>71.16364288330078</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0.7149416208267212</v>
-      </c>
-      <c r="I191" t="n">
-        <v>-6.243021965026855</v>
-      </c>
-      <c r="J191" t="n">
-        <v>71.29000091552734</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.7099999785423279</v>
-      </c>
-      <c r="L191" t="n">
-        <v>-6.320000171661377</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B192" t="n">
-        <v>50</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D192" t="n">
-        <v>28</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.01999999955296516</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.2737575471401215</v>
-      </c>
-      <c r="G192" t="n">
-        <v>73.99480438232422</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0.4783865511417389</v>
-      </c>
-      <c r="I192" t="n">
-        <v>-6.501890659332275</v>
-      </c>
-      <c r="J192" t="n">
-        <v>73.51999664306641</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.6200000047683716</v>
-      </c>
-      <c r="L192" t="n">
-        <v>-6.670000076293945</v>
+        <v>-6.179999828338623</v>
       </c>
     </row>
   </sheetData>
